--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6B057-F45E-46DA-9188-9D84F3A005EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F05B79-1688-48BA-BB7E-14D6258560C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="91899840.004_00_COA" sheetId="9" r:id="rId6"/>
     <sheet name="Cpk " sheetId="10" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Page1!$A$1:$O$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!#REF!</definedName>
@@ -41,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1462,7 +1462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1828,6 +1828,21 @@
     <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1966,10 +1981,37 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,6 +2522,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2692,185 +2743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Page1"/>
-      <sheetName val="Page2"/>
-      <sheetName val="Page3"/>
-      <sheetName val="Page4"/>
-      <sheetName val="Page5"/>
-      <sheetName val="21081576.001_01_COA"/>
-      <sheetName val="Cpk "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="O9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="O10" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="O18" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="O19" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="O20" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="O24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="O25" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="O26" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="O27" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="O28" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="O29" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="O30" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="O34" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="O35" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="O36" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="O37" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="O38" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3166,7 +3038,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+      <selection activeCell="J28" sqref="J28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3177,61 +3049,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="135"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="138" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="138"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3241,607 +3113,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141" t="s">
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="141" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="141" t="s">
+      <c r="I4" s="147"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="171"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="172"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="186"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183" t="s">
+      <c r="E5" s="190"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="175" t="s">
+      <c r="I5" s="198"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="179"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="180"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="194"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="169"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="183"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="161" t="s">
+      <c r="A7" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="161" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="161" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="162"/>
-      <c r="O7" s="170"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="184"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="116"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="130"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="135"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="116"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="116"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="130"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="135"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="116"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="116"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="121"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="116"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="130"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="135"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="121"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="130"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="135"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="116"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="130"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="135"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="130"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="135"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="116"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="121"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="116"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="121"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="130"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="135"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="116"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="116"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="121"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="130"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="135"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="116"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="116"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="121"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="130"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="135"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="116"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="121"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="191"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="205"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3849,30 +3721,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="144" t="e">
+      <c r="D38" s="149" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="144" t="e">
+      <c r="E38" s="150"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="158" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="145"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="144" t="e">
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="286" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="145"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="144" t="e">
+      <c r="K38" s="322"/>
+      <c r="L38" s="287"/>
+      <c r="M38" s="149" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="145"/>
-      <c r="O38" s="153"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="161"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3880,30 +3752,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="147">
+      <c r="D39" s="152">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="148"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="147">
+      <c r="E39" s="153"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="162">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="148"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="147">
+      <c r="H39" s="163"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="290">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="148"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="147">
+      <c r="K39" s="323"/>
+      <c r="L39" s="291"/>
+      <c r="M39" s="152">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="148"/>
-      <c r="O39" s="154"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="165"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3911,60 +3783,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="150">
+      <c r="D40" s="155">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="150">
+      <c r="E40" s="156"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="166">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="151"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="150">
+      <c r="H40" s="167"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="284">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="151"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="150">
+      <c r="K40" s="324"/>
+      <c r="L40" s="285"/>
+      <c r="M40" s="155">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="151"/>
-      <c r="O40" s="155"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="169"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="193" t="s">
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="193"/>
+      <c r="E41" s="207"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="194" t="s">
+      <c r="J41" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="194"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="195"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="209"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="209"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="210"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3973,38 +3845,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="197"/>
-      <c r="N42" s="197"/>
+      <c r="L42" s="211"/>
+      <c r="M42" s="211"/>
+      <c r="N42" s="211"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="198" t="s">
+      <c r="A43" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="212"/>
+      <c r="J43" s="212"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="198"/>
+      <c r="B44" s="212"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -4015,10 +3887,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="199" t="s">
+      <c r="M44" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="199"/>
+      <c r="N44" s="213"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -4034,45 +3906,45 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="143"/>
-      <c r="D75" s="143"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="143"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="143"/>
-      <c r="M75" s="143"/>
-      <c r="N75" s="143"/>
-      <c r="O75" s="143"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="148"/>
+      <c r="O75" s="148"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="I76" s="143"/>
-      <c r="J76" s="143"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="143"/>
-      <c r="N76" s="143"/>
-      <c r="O76" s="143"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="143"/>
-      <c r="J77" s="143"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="143"/>
-      <c r="M77" s="143"/>
-      <c r="N77" s="143"/>
-      <c r="O77" s="143"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="148"/>
+      <c r="O77" s="148"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="143"/>
-      <c r="D78" s="143"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
@@ -4285,7 +4157,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="1.7716535433070868" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4296,7 +4168,7 @@
   </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4308,61 +4180,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="135" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="135"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="138" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="138"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -4372,130 +4244,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="222">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="225"/>
+      <c r="G4" s="226">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="226"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="226">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="226"/>
+      <c r="L4" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="228">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="222">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="254">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="214"/>
+      <c r="G5" s="254">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="254"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="254">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="230">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="255"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="225"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="239"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="201" t="s">
+      <c r="A7" s="231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="213"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202" t="s">
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="202" t="s">
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="205"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="219"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5589,27 +5461,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="232" t="e">
+      <c r="D39" s="246" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="235" t="e">
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="248"/>
+      <c r="H39" s="249" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="235" t="e">
+      <c r="I39" s="250"/>
+      <c r="J39" s="250"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="249" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="250"/>
+      <c r="N39" s="250"/>
+      <c r="O39" s="252"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5617,27 +5489,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="229" t="e">
+      <c r="D40" s="243" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="244"/>
+      <c r="F40" s="244"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="240" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="241"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="240" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="253"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5645,57 +5517,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="220" t="e">
+      <c r="D41" s="234" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="242" t="e">
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="256" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="243"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="242" t="e">
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="258"/>
+      <c r="L41" s="256" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="257"/>
+      <c r="N41" s="257"/>
+      <c r="O41" s="259"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="206"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="207"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5704,39 +5576,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="212" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5747,10 +5619,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="213"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5853,61 +5725,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="135" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="135"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="138" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="138"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5917,130 +5789,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="222">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="225"/>
+      <c r="G4" s="226">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="226"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="226">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="226"/>
+      <c r="L4" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="228">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="222">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="254">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="214"/>
+      <c r="G5" s="254">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="254"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="254">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="230">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="255"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="225"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="239"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="201" t="s">
+      <c r="A7" s="231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="213"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202" t="s">
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="246" t="s">
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="260" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="247"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="248"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="262"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -7137,27 +7009,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="232" t="e">
+      <c r="D39" s="246" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="235" t="e">
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="248"/>
+      <c r="H39" s="249" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="235" t="e">
+      <c r="I39" s="250"/>
+      <c r="J39" s="250"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="249" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="250"/>
+      <c r="N39" s="250"/>
+      <c r="O39" s="252"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -7165,27 +7037,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="229" t="e">
+      <c r="D40" s="243" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="244"/>
+      <c r="F40" s="244"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="240" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="241"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="240" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="253"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -7193,57 +7065,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="220" t="e">
+      <c r="D41" s="234" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="242" t="e">
+      <c r="E41" s="235"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="256" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="243"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="242" t="e">
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="258"/>
+      <c r="L41" s="256" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="257"/>
+      <c r="N41" s="257"/>
+      <c r="O41" s="259"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="263"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="207"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
+      <c r="B43" s="264"/>
+      <c r="C43" s="264"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -7252,39 +7124,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="212" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -7295,10 +7167,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="213"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
@@ -7386,61 +7258,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="135" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="135"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="138" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="138"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -7450,142 +7322,142 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="222">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="225"/>
+      <c r="G4" s="226">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="226"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="226">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="226"/>
+      <c r="L4" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="228">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="222">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="254">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="214"/>
+      <c r="G5" s="254">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="254"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="254">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="230">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="255"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="266" t="s">
+      <c r="A6" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="271"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261" t="s">
+      <c r="A7" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="273"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261" t="s">
+      <c r="E7" s="274"/>
+      <c r="F7" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="262" t="s">
+      <c r="I7" s="274"/>
+      <c r="J7" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="263"/>
-      <c r="L7" s="208" t="s">
+      <c r="K7" s="277"/>
+      <c r="L7" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="215"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="229"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="265"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="279"/>
       <c r="L8" s="49">
         <v>1</v>
       </c>
@@ -7612,14 +7484,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="254"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="268"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7641,14 +7513,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="123"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="128"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7670,14 +7542,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="123"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="128"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7699,14 +7571,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="123"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7728,14 +7600,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="123"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7757,14 +7629,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="123"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="128"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7786,14 +7658,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="123"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="128"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7815,14 +7687,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="123"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7844,14 +7716,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="123"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="128"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7873,14 +7745,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="123"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7902,14 +7774,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="123"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="128"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7931,14 +7803,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7960,14 +7832,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="123"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7989,14 +7861,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="123"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -8018,14 +7890,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="123"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="128"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -8047,14 +7919,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="123"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="128"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -8076,14 +7948,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="123"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -8105,14 +7977,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="123"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="128"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -8134,14 +8006,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="123"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="128"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -8163,14 +8035,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="123"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="128"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -8192,14 +8064,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="123"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="128"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -8221,14 +8093,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="123"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="128"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -8250,14 +8122,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="123"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="128"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -8279,14 +8151,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="123"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="128"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -8308,14 +8180,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="123"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="128"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -8337,14 +8209,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="123"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="128"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -8366,14 +8238,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="123"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="128"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -8395,14 +8267,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="123"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="128"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -8424,14 +8296,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="123"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="128"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -8453,14 +8325,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="158"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="172"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8475,33 +8347,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="272" t="e">
+      <c r="D39" s="286" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="273"/>
-      <c r="F39" s="272" t="e">
+      <c r="E39" s="287"/>
+      <c r="F39" s="286" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="273"/>
-      <c r="H39" s="272" t="e">
+      <c r="G39" s="287"/>
+      <c r="H39" s="286" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="273"/>
-      <c r="J39" s="144" t="e">
+      <c r="I39" s="287"/>
+      <c r="J39" s="149" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="146"/>
-      <c r="L39" s="235" t="e">
+      <c r="K39" s="151"/>
+      <c r="L39" s="249" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="250"/>
+      <c r="N39" s="250"/>
+      <c r="O39" s="252"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8509,33 +8381,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="274">
+      <c r="D40" s="288">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="275"/>
-      <c r="F40" s="276">
+      <c r="E40" s="289"/>
+      <c r="F40" s="290">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="277"/>
-      <c r="H40" s="276">
+      <c r="G40" s="291"/>
+      <c r="H40" s="290">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="277"/>
-      <c r="J40" s="147">
+      <c r="I40" s="291"/>
+      <c r="J40" s="152">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="149"/>
-      <c r="L40" s="226" t="e">
+      <c r="K40" s="154"/>
+      <c r="L40" s="240" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="253"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8543,63 +8415,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="268">
+      <c r="D41" s="282">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="269"/>
-      <c r="F41" s="270">
+      <c r="E41" s="283"/>
+      <c r="F41" s="284">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="271"/>
-      <c r="H41" s="270">
+      <c r="G41" s="285"/>
+      <c r="H41" s="284">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="271"/>
-      <c r="J41" s="150">
+      <c r="I41" s="285"/>
+      <c r="J41" s="155">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="152"/>
-      <c r="L41" s="242" t="e">
+      <c r="K41" s="157"/>
+      <c r="L41" s="256" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="257"/>
+      <c r="N41" s="257"/>
+      <c r="O41" s="259"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="263"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="207"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
+      <c r="B43" s="264"/>
+      <c r="C43" s="264"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8608,39 +8480,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="212" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8651,15 +8523,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="213"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="198"/>
-      <c r="B46" s="198"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="212"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8670,8 +8542,8 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="199"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
@@ -8879,7 +8751,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8902,61 +8774,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="135" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="135"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="138" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="138"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -8966,90 +8838,90 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="222">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="225"/>
+      <c r="G4" s="226">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="226"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="226">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="226"/>
+      <c r="L4" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="228">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="222">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="254">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="214"/>
+      <c r="G5" s="254">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="254"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="254">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="230">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="255"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="170"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -9062,38 +8934,38 @@
       <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="290" t="s">
+      <c r="A7" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="291"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="278"/>
-      <c r="O7" s="280"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="292"/>
+      <c r="O7" s="294"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="223"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -9112,16 +8984,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="281">
-        <v>0</v>
-      </c>
-      <c r="E9" s="282"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="284"/>
-      <c r="K9" s="284"/>
+      <c r="D9" s="295">
+        <v>0</v>
+      </c>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="297"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
@@ -9140,16 +9012,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="294">
-        <v>0</v>
-      </c>
-      <c r="E10" s="295"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="284"/>
+      <c r="D10" s="308">
+        <v>0</v>
+      </c>
+      <c r="E10" s="309"/>
+      <c r="F10" s="297"/>
+      <c r="G10" s="297"/>
+      <c r="H10" s="297"/>
+      <c r="I10" s="297"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="298"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
@@ -9168,16 +9040,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="294">
-        <v>0</v>
-      </c>
-      <c r="E11" s="295"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="284"/>
+      <c r="D11" s="308">
+        <v>0</v>
+      </c>
+      <c r="E11" s="309"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="297"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="298"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
@@ -9196,16 +9068,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="294">
-        <v>0</v>
-      </c>
-      <c r="E12" s="295"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="284"/>
+      <c r="D12" s="308">
+        <v>0</v>
+      </c>
+      <c r="E12" s="309"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="298"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
@@ -9224,16 +9096,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="294">
-        <v>0</v>
-      </c>
-      <c r="E13" s="295"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
+      <c r="D13" s="308">
+        <v>0</v>
+      </c>
+      <c r="E13" s="309"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="297"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -9252,16 +9124,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="294">
-        <v>0</v>
-      </c>
-      <c r="E14" s="295"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
-      <c r="H14" s="283"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="284"/>
+      <c r="D14" s="308">
+        <v>0</v>
+      </c>
+      <c r="E14" s="309"/>
+      <c r="F14" s="297"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="297"/>
+      <c r="I14" s="297"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="298"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -9280,16 +9152,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="294">
-        <v>0</v>
-      </c>
-      <c r="E15" s="295"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284"/>
+      <c r="D15" s="308">
+        <v>0</v>
+      </c>
+      <c r="E15" s="309"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="298"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -9308,16 +9180,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="294">
-        <v>0</v>
-      </c>
-      <c r="E16" s="295"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
+      <c r="D16" s="308">
+        <v>0</v>
+      </c>
+      <c r="E16" s="309"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="297"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="298"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -9336,16 +9208,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="294">
-        <v>0</v>
-      </c>
-      <c r="E17" s="295"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283"/>
-      <c r="H17" s="283"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="284"/>
+      <c r="D17" s="308">
+        <v>0</v>
+      </c>
+      <c r="E17" s="309"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="297"/>
+      <c r="I17" s="297"/>
+      <c r="J17" s="298"/>
+      <c r="K17" s="298"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9364,16 +9236,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="294">
-        <v>0</v>
-      </c>
-      <c r="E18" s="295"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="283"/>
-      <c r="H18" s="283"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
+      <c r="D18" s="308">
+        <v>0</v>
+      </c>
+      <c r="E18" s="309"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297"/>
+      <c r="H18" s="297"/>
+      <c r="I18" s="297"/>
+      <c r="J18" s="298"/>
+      <c r="K18" s="298"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -9392,16 +9264,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="294">
-        <v>0</v>
-      </c>
-      <c r="E19" s="295"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
+      <c r="D19" s="308">
+        <v>0</v>
+      </c>
+      <c r="E19" s="309"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="297"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
@@ -9420,16 +9292,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="294">
-        <v>0</v>
-      </c>
-      <c r="E20" s="295"/>
-      <c r="F20" s="283"/>
-      <c r="G20" s="283"/>
-      <c r="H20" s="283"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
+      <c r="D20" s="308">
+        <v>0</v>
+      </c>
+      <c r="E20" s="309"/>
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="297"/>
+      <c r="I20" s="297"/>
+      <c r="J20" s="298"/>
+      <c r="K20" s="298"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -9448,16 +9320,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="294">
-        <v>0</v>
-      </c>
-      <c r="E21" s="295"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283"/>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
+      <c r="D21" s="308">
+        <v>0</v>
+      </c>
+      <c r="E21" s="309"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="297"/>
+      <c r="H21" s="297"/>
+      <c r="I21" s="297"/>
+      <c r="J21" s="298"/>
+      <c r="K21" s="298"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
@@ -9476,16 +9348,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="294">
-        <v>0</v>
-      </c>
-      <c r="E22" s="295"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
+      <c r="D22" s="308">
+        <v>0</v>
+      </c>
+      <c r="E22" s="309"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="297"/>
+      <c r="I22" s="297"/>
+      <c r="J22" s="298"/>
+      <c r="K22" s="298"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
@@ -9504,16 +9376,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="294">
-        <v>0</v>
-      </c>
-      <c r="E23" s="295"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="283"/>
-      <c r="H23" s="283"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
+      <c r="D23" s="308">
+        <v>0</v>
+      </c>
+      <c r="E23" s="309"/>
+      <c r="F23" s="297"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="297"/>
+      <c r="I23" s="297"/>
+      <c r="J23" s="298"/>
+      <c r="K23" s="298"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -9532,16 +9404,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="294">
-        <v>0</v>
-      </c>
-      <c r="E24" s="295"/>
-      <c r="F24" s="283"/>
-      <c r="G24" s="283"/>
-      <c r="H24" s="283"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
+      <c r="D24" s="308">
+        <v>0</v>
+      </c>
+      <c r="E24" s="309"/>
+      <c r="F24" s="297"/>
+      <c r="G24" s="297"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="297"/>
+      <c r="J24" s="298"/>
+      <c r="K24" s="298"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
@@ -9560,16 +9432,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="294">
-        <v>0</v>
-      </c>
-      <c r="E25" s="295"/>
-      <c r="F25" s="283"/>
-      <c r="G25" s="283"/>
-      <c r="H25" s="283"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284"/>
+      <c r="D25" s="308">
+        <v>0</v>
+      </c>
+      <c r="E25" s="309"/>
+      <c r="F25" s="297"/>
+      <c r="G25" s="297"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="297"/>
+      <c r="J25" s="298"/>
+      <c r="K25" s="298"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
@@ -9588,16 +9460,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="294">
-        <v>0</v>
-      </c>
-      <c r="E26" s="295"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="283"/>
-      <c r="H26" s="283"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
+      <c r="D26" s="308">
+        <v>0</v>
+      </c>
+      <c r="E26" s="309"/>
+      <c r="F26" s="297"/>
+      <c r="G26" s="297"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="298"/>
+      <c r="K26" s="298"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -9616,16 +9488,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="294">
-        <v>0</v>
-      </c>
-      <c r="E27" s="295"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="283"/>
-      <c r="H27" s="283"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="284"/>
+      <c r="D27" s="308">
+        <v>0</v>
+      </c>
+      <c r="E27" s="309"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="297"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="297"/>
+      <c r="J27" s="298"/>
+      <c r="K27" s="298"/>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -9644,16 +9516,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="294">
-        <v>0</v>
-      </c>
-      <c r="E28" s="295"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="283"/>
-      <c r="H28" s="283"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
+      <c r="D28" s="308">
+        <v>0</v>
+      </c>
+      <c r="E28" s="309"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="297"/>
+      <c r="H28" s="297"/>
+      <c r="I28" s="297"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="298"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -9672,16 +9544,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="294">
-        <v>0</v>
-      </c>
-      <c r="E29" s="295"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="283"/>
-      <c r="H29" s="283"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="284"/>
+      <c r="D29" s="308">
+        <v>0</v>
+      </c>
+      <c r="E29" s="309"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="297"/>
+      <c r="H29" s="297"/>
+      <c r="I29" s="297"/>
+      <c r="J29" s="298"/>
+      <c r="K29" s="298"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9700,16 +9572,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="294">
-        <v>0</v>
-      </c>
-      <c r="E30" s="295"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="283"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="284"/>
-      <c r="K30" s="284"/>
+      <c r="D30" s="308">
+        <v>0</v>
+      </c>
+      <c r="E30" s="309"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="297"/>
+      <c r="H30" s="297"/>
+      <c r="I30" s="297"/>
+      <c r="J30" s="298"/>
+      <c r="K30" s="298"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
@@ -9728,16 +9600,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="294">
-        <v>0</v>
-      </c>
-      <c r="E31" s="295"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="284"/>
-      <c r="K31" s="284"/>
+      <c r="D31" s="308">
+        <v>0</v>
+      </c>
+      <c r="E31" s="309"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="297"/>
+      <c r="H31" s="297"/>
+      <c r="I31" s="297"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="298"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -9756,16 +9628,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="294">
-        <v>0</v>
-      </c>
-      <c r="E32" s="295"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="283"/>
-      <c r="H32" s="283"/>
-      <c r="I32" s="283"/>
-      <c r="J32" s="284"/>
-      <c r="K32" s="284"/>
+      <c r="D32" s="308">
+        <v>0</v>
+      </c>
+      <c r="E32" s="309"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="297"/>
+      <c r="H32" s="297"/>
+      <c r="I32" s="297"/>
+      <c r="J32" s="298"/>
+      <c r="K32" s="298"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -9784,16 +9656,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="294">
-        <v>0</v>
-      </c>
-      <c r="E33" s="295"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="284"/>
-      <c r="K33" s="284"/>
+      <c r="D33" s="308">
+        <v>0</v>
+      </c>
+      <c r="E33" s="309"/>
+      <c r="F33" s="297"/>
+      <c r="G33" s="297"/>
+      <c r="H33" s="297"/>
+      <c r="I33" s="297"/>
+      <c r="J33" s="298"/>
+      <c r="K33" s="298"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -9812,16 +9684,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="294">
-        <v>0</v>
-      </c>
-      <c r="E34" s="295"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
-      <c r="H34" s="283"/>
-      <c r="I34" s="283"/>
-      <c r="J34" s="284"/>
-      <c r="K34" s="284"/>
+      <c r="D34" s="308">
+        <v>0</v>
+      </c>
+      <c r="E34" s="309"/>
+      <c r="F34" s="297"/>
+      <c r="G34" s="297"/>
+      <c r="H34" s="297"/>
+      <c r="I34" s="297"/>
+      <c r="J34" s="298"/>
+      <c r="K34" s="298"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -9840,16 +9712,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="294">
-        <v>0</v>
-      </c>
-      <c r="E35" s="295"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="284"/>
-      <c r="K35" s="284"/>
+      <c r="D35" s="308">
+        <v>0</v>
+      </c>
+      <c r="E35" s="309"/>
+      <c r="F35" s="297"/>
+      <c r="G35" s="297"/>
+      <c r="H35" s="297"/>
+      <c r="I35" s="297"/>
+      <c r="J35" s="298"/>
+      <c r="K35" s="298"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -9868,16 +9740,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="294">
-        <v>0</v>
-      </c>
-      <c r="E36" s="295"/>
-      <c r="F36" s="283"/>
-      <c r="G36" s="283"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="283"/>
-      <c r="J36" s="284"/>
-      <c r="K36" s="284"/>
+      <c r="D36" s="308">
+        <v>0</v>
+      </c>
+      <c r="E36" s="309"/>
+      <c r="F36" s="297"/>
+      <c r="G36" s="297"/>
+      <c r="H36" s="297"/>
+      <c r="I36" s="297"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="298"/>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
       <c r="N36" s="62"/>
@@ -9896,16 +9768,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="294">
-        <v>0</v>
-      </c>
-      <c r="E37" s="295"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="284"/>
-      <c r="K37" s="284"/>
+      <c r="D37" s="308">
+        <v>0</v>
+      </c>
+      <c r="E37" s="309"/>
+      <c r="F37" s="297"/>
+      <c r="G37" s="297"/>
+      <c r="H37" s="297"/>
+      <c r="I37" s="297"/>
+      <c r="J37" s="298"/>
+      <c r="K37" s="298"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
@@ -9924,16 +9796,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="304">
-        <v>0</v>
-      </c>
-      <c r="E38" s="305"/>
-      <c r="F38" s="283"/>
-      <c r="G38" s="283"/>
-      <c r="H38" s="283"/>
-      <c r="I38" s="283"/>
-      <c r="J38" s="284"/>
-      <c r="K38" s="284"/>
+      <c r="D38" s="318">
+        <v>0</v>
+      </c>
+      <c r="E38" s="319"/>
+      <c r="F38" s="297"/>
+      <c r="G38" s="297"/>
+      <c r="H38" s="297"/>
+      <c r="I38" s="297"/>
+      <c r="J38" s="298"/>
+      <c r="K38" s="298"/>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -9945,17 +9817,17 @@
       <c r="C39" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="306">
+      <c r="D39" s="320">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="307"/>
-      <c r="F39" s="302"/>
-      <c r="G39" s="302"/>
-      <c r="H39" s="302"/>
-      <c r="I39" s="302"/>
-      <c r="J39" s="303"/>
-      <c r="K39" s="303"/>
+      <c r="E39" s="321"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="316"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="316"/>
+      <c r="J39" s="317"/>
+      <c r="K39" s="317"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
@@ -9967,17 +9839,17 @@
       <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="300">
+      <c r="D40" s="314">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="301"/>
-      <c r="F40" s="302"/>
-      <c r="G40" s="302"/>
-      <c r="H40" s="302"/>
-      <c r="I40" s="302"/>
-      <c r="J40" s="303"/>
-      <c r="K40" s="303"/>
+      <c r="E40" s="315"/>
+      <c r="F40" s="316"/>
+      <c r="G40" s="316"/>
+      <c r="H40" s="316"/>
+      <c r="I40" s="316"/>
+      <c r="J40" s="317"/>
+      <c r="K40" s="317"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
@@ -9989,17 +9861,17 @@
       <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="296">
+      <c r="D41" s="310">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="297"/>
-      <c r="F41" s="298"/>
-      <c r="G41" s="298"/>
-      <c r="H41" s="298"/>
-      <c r="I41" s="298"/>
-      <c r="J41" s="299"/>
-      <c r="K41" s="299"/>
+      <c r="E41" s="311"/>
+      <c r="F41" s="312"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="312"/>
+      <c r="I41" s="312"/>
+      <c r="J41" s="313"/>
+      <c r="K41" s="313"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -10009,31 +9881,31 @@
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="206"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="207"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -10042,39 +9914,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="212" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -10085,10 +9957,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="213"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
@@ -10293,7 +10165,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10416,38 +10288,38 @@
         <f>Page1!D8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="107" t="e">
+      <c r="F3" s="115" t="e">
         <f>Page3!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="107" t="e">
+      <c r="G3" s="115" t="e">
         <f>Page2!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="107" t="e">
+      <c r="H3" s="114" t="e">
         <f>Page3!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="107" t="e">
+      <c r="I3" s="114" t="e">
         <f>Page2!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="107" t="e">
+      <c r="J3" s="114" t="e">
         <f>Page2!O9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="107">
+      <c r="K3" s="116">
         <f>Page1!G8</f>
         <v>0</v>
       </c>
-      <c r="L3" s="107" t="e">
+      <c r="L3" s="114" t="e">
         <f>Page3!O9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="109">
         <v>0</v>
       </c>
-      <c r="N3" s="107">
+      <c r="N3" s="115">
         <f>Page5!D9</f>
         <v>0</v>
       </c>
@@ -10470,38 +10342,38 @@
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="107" t="e">
+      <c r="F4" s="115" t="e">
         <f>Page3!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="107" t="e">
+      <c r="G4" s="115" t="e">
         <f>Page2!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="107" t="e">
+      <c r="H4" s="114" t="e">
         <f>Page3!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="107" t="e">
+      <c r="I4" s="114" t="e">
         <f>Page2!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="107" t="e">
+      <c r="J4" s="114" t="e">
         <f>Page2!O10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="107">
+      <c r="K4" s="116">
         <f>Page1!G9</f>
         <v>0</v>
       </c>
-      <c r="L4" s="107" t="e">
+      <c r="L4" s="114" t="e">
         <f>Page3!O10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="109">
         <v>0</v>
       </c>
-      <c r="N4" s="107">
+      <c r="N4" s="115">
         <f>Page5!D10</f>
         <v>0</v>
       </c>
@@ -10524,38 +10396,38 @@
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="107" t="e">
+      <c r="F5" s="115" t="e">
         <f>Page3!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="107" t="e">
+      <c r="G5" s="115" t="e">
         <f>Page2!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="107" t="e">
+      <c r="H5" s="114" t="e">
         <f>Page3!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="107" t="e">
+      <c r="I5" s="114" t="e">
         <f>Page2!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="107" t="e">
+      <c r="J5" s="114" t="e">
         <f>Page2!O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="107">
+      <c r="K5" s="116">
         <f>Page1!G10</f>
         <v>0</v>
       </c>
-      <c r="L5" s="107" t="e">
+      <c r="L5" s="114" t="e">
         <f>Page3!O11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="109">
         <v>0</v>
       </c>
-      <c r="N5" s="107">
+      <c r="N5" s="115">
         <f>Page5!D11</f>
         <v>0</v>
       </c>
@@ -10578,38 +10450,38 @@
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="107" t="e">
+      <c r="F6" s="115" t="e">
         <f>Page3!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="107" t="e">
+      <c r="G6" s="115" t="e">
         <f>Page2!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="107" t="e">
+      <c r="H6" s="114" t="e">
         <f>Page3!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="107" t="e">
+      <c r="I6" s="114" t="e">
         <f>Page2!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="107" t="e">
+      <c r="J6" s="114" t="e">
         <f>Page2!O12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="107">
+      <c r="K6" s="116">
         <f>Page1!G11</f>
         <v>0</v>
       </c>
-      <c r="L6" s="107" t="e">
+      <c r="L6" s="114" t="e">
         <f>Page3!O12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="109">
         <v>0</v>
       </c>
-      <c r="N6" s="107">
+      <c r="N6" s="115">
         <f>Page5!D12</f>
         <v>0</v>
       </c>
@@ -10632,38 +10504,38 @@
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="107" t="e">
+      <c r="F7" s="115" t="e">
         <f>Page3!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="107" t="e">
+      <c r="G7" s="115" t="e">
         <f>Page2!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="107" t="e">
+      <c r="H7" s="114" t="e">
         <f>Page3!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="107" t="e">
+      <c r="I7" s="114" t="e">
         <f>Page2!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="107" t="e">
+      <c r="J7" s="114" t="e">
         <f>Page2!O13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="107">
+      <c r="K7" s="116">
         <f>Page1!G12</f>
         <v>0</v>
       </c>
-      <c r="L7" s="107" t="e">
+      <c r="L7" s="114" t="e">
         <f>Page3!O13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="109">
         <v>0</v>
       </c>
-      <c r="N7" s="107">
+      <c r="N7" s="115">
         <f>Page5!D13</f>
         <v>0</v>
       </c>
@@ -10686,38 +10558,38 @@
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="107" t="e">
+      <c r="F8" s="115" t="e">
         <f>Page3!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="107" t="e">
+      <c r="G8" s="115" t="e">
         <f>Page2!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="107" t="e">
+      <c r="H8" s="114" t="e">
         <f>Page3!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="107" t="e">
+      <c r="I8" s="114" t="e">
         <f>Page2!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="107" t="e">
+      <c r="J8" s="114" t="e">
         <f>Page2!O14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="116">
         <f>Page1!G13</f>
         <v>0</v>
       </c>
-      <c r="L8" s="107" t="e">
+      <c r="L8" s="114" t="e">
         <f>Page3!O14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="109">
         <v>0</v>
       </c>
-      <c r="N8" s="107">
+      <c r="N8" s="115">
         <f>Page5!D14</f>
         <v>0</v>
       </c>
@@ -10740,38 +10612,38 @@
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="F9" s="107" t="e">
+      <c r="F9" s="115" t="e">
         <f>Page3!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="107" t="e">
+      <c r="G9" s="115" t="e">
         <f>Page2!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="107" t="e">
+      <c r="H9" s="114" t="e">
         <f>Page3!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="107" t="e">
+      <c r="I9" s="114" t="e">
         <f>Page2!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="107" t="e">
+      <c r="J9" s="114" t="e">
         <f>Page2!O15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="116">
         <f>Page1!G14</f>
         <v>0</v>
       </c>
-      <c r="L9" s="107" t="e">
+      <c r="L9" s="114" t="e">
         <f>Page3!O15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="109">
         <v>0</v>
       </c>
-      <c r="N9" s="107">
+      <c r="N9" s="115">
         <f>Page5!D15</f>
         <v>0</v>
       </c>
@@ -10794,38 +10666,38 @@
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="107" t="e">
+      <c r="F10" s="115" t="e">
         <f>Page3!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="107" t="e">
+      <c r="G10" s="115" t="e">
         <f>Page2!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="107" t="e">
+      <c r="H10" s="114" t="e">
         <f>Page3!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="107" t="e">
+      <c r="I10" s="114" t="e">
         <f>Page2!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="107" t="e">
+      <c r="J10" s="114" t="e">
         <f>Page2!O16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="107">
+      <c r="K10" s="116">
         <f>Page1!G15</f>
         <v>0</v>
       </c>
-      <c r="L10" s="107" t="e">
+      <c r="L10" s="114" t="e">
         <f>Page3!O16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="109">
         <v>0</v>
       </c>
-      <c r="N10" s="107">
+      <c r="N10" s="115">
         <f>Page5!D16</f>
         <v>0</v>
       </c>
@@ -10848,38 +10720,38 @@
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="F11" s="107" t="e">
+      <c r="F11" s="115" t="e">
         <f>Page3!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="107" t="e">
+      <c r="G11" s="115" t="e">
         <f>Page2!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="107" t="e">
+      <c r="H11" s="114" t="e">
         <f>Page3!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="107" t="e">
+      <c r="I11" s="114" t="e">
         <f>Page2!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="107" t="e">
+      <c r="J11" s="114" t="e">
         <f>Page2!O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="107">
+      <c r="K11" s="116">
         <f>Page1!G16</f>
         <v>0</v>
       </c>
-      <c r="L11" s="107" t="e">
+      <c r="L11" s="114" t="e">
         <f>Page3!O17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="109">
         <v>0</v>
       </c>
-      <c r="N11" s="107">
+      <c r="N11" s="115">
         <f>Page5!D17</f>
         <v>0</v>
       </c>
@@ -10902,38 +10774,38 @@
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="F12" s="107" t="e">
+      <c r="F12" s="115" t="e">
         <f>Page3!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="107" t="e">
+      <c r="G12" s="115" t="e">
         <f>Page2!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="107" t="e">
+      <c r="H12" s="114" t="e">
         <f>Page3!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="107" t="e">
+      <c r="I12" s="114" t="e">
         <f>Page2!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="107" t="e">
+      <c r="J12" s="114" t="e">
         <f>Page2!O18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="107">
+      <c r="K12" s="116">
         <f>Page1!G17</f>
         <v>0</v>
       </c>
-      <c r="L12" s="107" t="e">
+      <c r="L12" s="114" t="e">
         <f>Page3!O18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="109">
         <v>0</v>
       </c>
-      <c r="N12" s="107">
+      <c r="N12" s="115">
         <f>Page5!D18</f>
         <v>0</v>
       </c>
@@ -10956,38 +10828,38 @@
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="107" t="e">
+      <c r="F13" s="115" t="e">
         <f>Page3!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="107" t="e">
+      <c r="G13" s="115" t="e">
         <f>Page2!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="107" t="e">
+      <c r="H13" s="114" t="e">
         <f>Page3!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="107" t="e">
+      <c r="I13" s="114" t="e">
         <f>Page2!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="107" t="e">
+      <c r="J13" s="114" t="e">
         <f>Page2!O19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="116">
         <f>Page1!G18</f>
         <v>0</v>
       </c>
-      <c r="L13" s="107" t="e">
+      <c r="L13" s="114" t="e">
         <f>Page3!O19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="109">
         <v>0</v>
       </c>
-      <c r="N13" s="107">
+      <c r="N13" s="115">
         <f>Page5!D19</f>
         <v>0</v>
       </c>
@@ -11010,38 +10882,38 @@
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="F14" s="107" t="e">
+      <c r="F14" s="115" t="e">
         <f>Page3!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="107" t="e">
+      <c r="G14" s="115" t="e">
         <f>Page2!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="107" t="e">
+      <c r="H14" s="114" t="e">
         <f>Page3!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="107" t="e">
+      <c r="I14" s="114" t="e">
         <f>Page2!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="107" t="e">
+      <c r="J14" s="114" t="e">
         <f>Page2!O20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="107">
+      <c r="K14" s="116">
         <f>Page1!G19</f>
         <v>0</v>
       </c>
-      <c r="L14" s="107" t="e">
+      <c r="L14" s="114" t="e">
         <f>Page3!O20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="109">
         <v>0</v>
       </c>
-      <c r="N14" s="107">
+      <c r="N14" s="115">
         <f>Page5!D20</f>
         <v>0</v>
       </c>
@@ -11064,38 +10936,38 @@
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="107" t="e">
+      <c r="F15" s="115" t="e">
         <f>Page3!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="107" t="e">
+      <c r="G15" s="115" t="e">
         <f>Page2!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="107" t="e">
+      <c r="H15" s="114" t="e">
         <f>Page3!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="107" t="e">
+      <c r="I15" s="114" t="e">
         <f>Page2!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="107" t="e">
+      <c r="J15" s="114" t="e">
         <f>Page2!O21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="107">
+      <c r="K15" s="116">
         <f>Page1!G20</f>
         <v>0</v>
       </c>
-      <c r="L15" s="107" t="e">
+      <c r="L15" s="114" t="e">
         <f>Page3!O21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="109">
         <v>0</v>
       </c>
-      <c r="N15" s="107">
+      <c r="N15" s="115">
         <f>Page5!D21</f>
         <v>0</v>
       </c>
@@ -11118,38 +10990,38 @@
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="107" t="e">
+      <c r="F16" s="115" t="e">
         <f>Page3!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="107" t="e">
+      <c r="G16" s="115" t="e">
         <f>Page2!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="107" t="e">
+      <c r="H16" s="114" t="e">
         <f>Page3!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="107" t="e">
+      <c r="I16" s="114" t="e">
         <f>Page2!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="107" t="e">
+      <c r="J16" s="114" t="e">
         <f>Page2!O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="107">
+      <c r="K16" s="116">
         <f>Page1!G21</f>
         <v>0</v>
       </c>
-      <c r="L16" s="107" t="e">
+      <c r="L16" s="114" t="e">
         <f>Page3!O22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="109">
         <v>0</v>
       </c>
-      <c r="N16" s="107">
+      <c r="N16" s="115">
         <f>Page5!D22</f>
         <v>0</v>
       </c>
@@ -11172,38 +11044,38 @@
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="F17" s="107" t="e">
+      <c r="F17" s="115" t="e">
         <f>Page3!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="107" t="e">
+      <c r="G17" s="115" t="e">
         <f>Page2!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="107" t="e">
+      <c r="H17" s="114" t="e">
         <f>Page3!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="107" t="e">
+      <c r="I17" s="114" t="e">
         <f>Page2!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="107" t="e">
+      <c r="J17" s="114" t="e">
         <f>Page2!O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="107">
+      <c r="K17" s="116">
         <f>Page1!G22</f>
         <v>0</v>
       </c>
-      <c r="L17" s="107" t="e">
+      <c r="L17" s="114" t="e">
         <f>Page3!O23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="109">
         <v>0</v>
       </c>
-      <c r="N17" s="107">
+      <c r="N17" s="115">
         <f>Page5!D23</f>
         <v>0</v>
       </c>
@@ -11226,38 +11098,38 @@
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="F18" s="107" t="e">
+      <c r="F18" s="115" t="e">
         <f>Page3!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="107" t="e">
+      <c r="G18" s="115" t="e">
         <f>Page2!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="107" t="e">
+      <c r="H18" s="114" t="e">
         <f>Page3!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="107" t="e">
+      <c r="I18" s="114" t="e">
         <f>Page2!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="107" t="e">
+      <c r="J18" s="114" t="e">
         <f>Page2!O24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="107">
+      <c r="K18" s="116">
         <f>Page1!G23</f>
         <v>0</v>
       </c>
-      <c r="L18" s="107" t="e">
+      <c r="L18" s="114" t="e">
         <f>Page3!O24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="109">
         <v>0</v>
       </c>
-      <c r="N18" s="107">
+      <c r="N18" s="115">
         <f>Page5!D24</f>
         <v>0</v>
       </c>
@@ -11280,38 +11152,38 @@
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="F19" s="107" t="e">
+      <c r="F19" s="115" t="e">
         <f>Page3!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="107" t="e">
+      <c r="G19" s="115" t="e">
         <f>Page2!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="107" t="e">
+      <c r="H19" s="114" t="e">
         <f>Page3!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="107" t="e">
+      <c r="I19" s="114" t="e">
         <f>Page2!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="107" t="e">
+      <c r="J19" s="114" t="e">
         <f>Page2!O25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="107">
+      <c r="K19" s="116">
         <f>Page1!G24</f>
         <v>0</v>
       </c>
-      <c r="L19" s="107" t="e">
+      <c r="L19" s="114" t="e">
         <f>Page3!O25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="109">
         <v>0</v>
       </c>
-      <c r="N19" s="107">
+      <c r="N19" s="115">
         <f>Page5!D25</f>
         <v>0</v>
       </c>
@@ -11334,38 +11206,38 @@
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="F20" s="107" t="e">
+      <c r="F20" s="115" t="e">
         <f>Page3!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="107" t="e">
+      <c r="G20" s="115" t="e">
         <f>Page2!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="107" t="e">
+      <c r="H20" s="114" t="e">
         <f>Page3!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="107" t="e">
+      <c r="I20" s="114" t="e">
         <f>Page2!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="107" t="e">
+      <c r="J20" s="114" t="e">
         <f>Page2!O26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="107">
+      <c r="K20" s="116">
         <f>Page1!G25</f>
         <v>0</v>
       </c>
-      <c r="L20" s="107" t="e">
+      <c r="L20" s="114" t="e">
         <f>Page3!O26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="109">
         <v>0</v>
       </c>
-      <c r="N20" s="107">
+      <c r="N20" s="115">
         <f>Page5!D26</f>
         <v>0</v>
       </c>
@@ -11388,38 +11260,38 @@
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="F21" s="107" t="e">
+      <c r="F21" s="115" t="e">
         <f>Page3!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="107" t="e">
+      <c r="G21" s="115" t="e">
         <f>Page2!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="107" t="e">
+      <c r="H21" s="114" t="e">
         <f>Page3!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="107" t="e">
+      <c r="I21" s="114" t="e">
         <f>Page2!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="107" t="e">
+      <c r="J21" s="114" t="e">
         <f>Page2!O27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="116">
         <f>Page1!G26</f>
         <v>0</v>
       </c>
-      <c r="L21" s="107" t="e">
+      <c r="L21" s="114" t="e">
         <f>Page3!O27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="109">
         <v>0</v>
       </c>
-      <c r="N21" s="107">
+      <c r="N21" s="115">
         <f>Page5!D27</f>
         <v>0</v>
       </c>
@@ -11442,38 +11314,38 @@
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="107" t="e">
+      <c r="F22" s="115" t="e">
         <f>Page3!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="107" t="e">
+      <c r="G22" s="115" t="e">
         <f>Page2!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="107" t="e">
+      <c r="H22" s="114" t="e">
         <f>Page3!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="107" t="e">
+      <c r="I22" s="114" t="e">
         <f>Page2!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="107" t="e">
+      <c r="J22" s="114" t="e">
         <f>Page2!O28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="107">
+      <c r="K22" s="116">
         <f>Page1!G27</f>
         <v>0</v>
       </c>
-      <c r="L22" s="107" t="e">
+      <c r="L22" s="114" t="e">
         <f>Page3!O28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="109">
         <v>0</v>
       </c>
-      <c r="N22" s="107">
+      <c r="N22" s="115">
         <f>Page5!D28</f>
         <v>0</v>
       </c>
@@ -11496,38 +11368,38 @@
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="F23" s="107" t="e">
+      <c r="F23" s="115" t="e">
         <f>Page3!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="107" t="e">
+      <c r="G23" s="115" t="e">
         <f>Page2!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="107" t="e">
+      <c r="H23" s="114" t="e">
         <f>Page3!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="107" t="e">
+      <c r="I23" s="114" t="e">
         <f>Page2!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="107" t="e">
+      <c r="J23" s="114" t="e">
         <f>Page2!O29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="107">
+      <c r="K23" s="116">
         <f>Page1!G28</f>
         <v>0</v>
       </c>
-      <c r="L23" s="107" t="e">
+      <c r="L23" s="114" t="e">
         <f>Page3!O29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="109">
         <v>0</v>
       </c>
-      <c r="N23" s="107">
+      <c r="N23" s="115">
         <f>Page5!D29</f>
         <v>0</v>
       </c>
@@ -11550,38 +11422,38 @@
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="F24" s="107" t="e">
+      <c r="F24" s="115" t="e">
         <f>Page3!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="107" t="e">
+      <c r="G24" s="115" t="e">
         <f>Page2!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="107" t="e">
+      <c r="H24" s="114" t="e">
         <f>Page3!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="107" t="e">
+      <c r="I24" s="114" t="e">
         <f>Page2!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="107" t="e">
+      <c r="J24" s="114" t="e">
         <f>Page2!O30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="107">
+      <c r="K24" s="116">
         <f>Page1!G29</f>
         <v>0</v>
       </c>
-      <c r="L24" s="107" t="e">
+      <c r="L24" s="114" t="e">
         <f>Page3!O30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="109">
         <v>0</v>
       </c>
-      <c r="N24" s="107">
+      <c r="N24" s="115">
         <f>Page5!D30</f>
         <v>0</v>
       </c>
@@ -11604,38 +11476,38 @@
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="F25" s="107" t="e">
+      <c r="F25" s="115" t="e">
         <f>Page3!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="107" t="e">
+      <c r="G25" s="115" t="e">
         <f>Page2!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="107" t="e">
+      <c r="H25" s="114" t="e">
         <f>Page3!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="107" t="e">
+      <c r="I25" s="114" t="e">
         <f>Page2!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="107" t="e">
+      <c r="J25" s="114" t="e">
         <f>Page2!O31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="107">
+      <c r="K25" s="116">
         <f>Page1!G30</f>
         <v>0</v>
       </c>
-      <c r="L25" s="107" t="e">
+      <c r="L25" s="114" t="e">
         <f>Page3!O31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="109">
         <v>0</v>
       </c>
-      <c r="N25" s="107">
+      <c r="N25" s="115">
         <f>Page5!D31</f>
         <v>0</v>
       </c>
@@ -11658,38 +11530,38 @@
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="F26" s="107" t="e">
+      <c r="F26" s="115" t="e">
         <f>Page3!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="107" t="e">
+      <c r="G26" s="115" t="e">
         <f>Page2!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="107" t="e">
+      <c r="H26" s="114" t="e">
         <f>Page3!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="107" t="e">
+      <c r="I26" s="114" t="e">
         <f>Page2!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="107" t="e">
+      <c r="J26" s="114" t="e">
         <f>Page2!O32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="107">
+      <c r="K26" s="116">
         <f>Page1!G31</f>
         <v>0</v>
       </c>
-      <c r="L26" s="107" t="e">
+      <c r="L26" s="114" t="e">
         <f>Page3!O32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="109">
         <v>0</v>
       </c>
-      <c r="N26" s="107">
+      <c r="N26" s="115">
         <f>Page5!D32</f>
         <v>0</v>
       </c>
@@ -11712,38 +11584,38 @@
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="F27" s="107" t="e">
+      <c r="F27" s="115" t="e">
         <f>Page3!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="107" t="e">
+      <c r="G27" s="115" t="e">
         <f>Page2!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="107" t="e">
+      <c r="H27" s="114" t="e">
         <f>Page3!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="107" t="e">
+      <c r="I27" s="114" t="e">
         <f>Page2!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="107" t="e">
+      <c r="J27" s="114" t="e">
         <f>Page2!O33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="107">
+      <c r="K27" s="116">
         <f>Page1!G32</f>
         <v>0</v>
       </c>
-      <c r="L27" s="107" t="e">
+      <c r="L27" s="114" t="e">
         <f>Page3!O33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="109">
         <v>0</v>
       </c>
-      <c r="N27" s="107">
+      <c r="N27" s="115">
         <f>Page5!D33</f>
         <v>0</v>
       </c>
@@ -11766,38 +11638,38 @@
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="F28" s="107" t="e">
+      <c r="F28" s="115" t="e">
         <f>Page3!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="107" t="e">
+      <c r="G28" s="115" t="e">
         <f>Page2!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="107" t="e">
+      <c r="H28" s="114" t="e">
         <f>Page3!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="107" t="e">
+      <c r="I28" s="114" t="e">
         <f>Page2!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="107" t="e">
+      <c r="J28" s="114" t="e">
         <f>Page2!O34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="116">
         <f>Page1!G33</f>
         <v>0</v>
       </c>
-      <c r="L28" s="107" t="e">
+      <c r="L28" s="114" t="e">
         <f>Page3!O34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="109">
         <v>0</v>
       </c>
-      <c r="N28" s="107">
+      <c r="N28" s="115">
         <f>Page5!D34</f>
         <v>0</v>
       </c>
@@ -11820,38 +11692,38 @@
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="F29" s="107" t="e">
+      <c r="F29" s="115" t="e">
         <f>Page3!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="107" t="e">
+      <c r="G29" s="115" t="e">
         <f>Page2!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="107" t="e">
+      <c r="H29" s="114" t="e">
         <f>Page3!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="107" t="e">
+      <c r="I29" s="114" t="e">
         <f>Page2!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="107" t="e">
+      <c r="J29" s="114" t="e">
         <f>Page2!O35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="107">
+      <c r="K29" s="116">
         <f>Page1!G34</f>
         <v>0</v>
       </c>
-      <c r="L29" s="107" t="e">
+      <c r="L29" s="114" t="e">
         <f>Page3!O35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="109">
         <v>0</v>
       </c>
-      <c r="N29" s="107">
+      <c r="N29" s="115">
         <f>Page5!D35</f>
         <v>0</v>
       </c>
@@ -11874,38 +11746,38 @@
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="107" t="e">
+      <c r="F30" s="115" t="e">
         <f>Page3!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="107" t="e">
+      <c r="G30" s="115" t="e">
         <f>Page2!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="107" t="e">
+      <c r="H30" s="114" t="e">
         <f>Page3!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="107" t="e">
+      <c r="I30" s="114" t="e">
         <f>Page2!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="107" t="e">
+      <c r="J30" s="114" t="e">
         <f>Page2!O36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="107">
+      <c r="K30" s="116">
         <f>Page1!G35</f>
         <v>0</v>
       </c>
-      <c r="L30" s="107" t="e">
+      <c r="L30" s="114" t="e">
         <f>Page3!O36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="109">
         <v>0</v>
       </c>
-      <c r="N30" s="107">
+      <c r="N30" s="115">
         <f>Page5!D36</f>
         <v>0</v>
       </c>
@@ -11928,38 +11800,38 @@
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="107" t="e">
+      <c r="F31" s="115" t="e">
         <f>Page3!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="107" t="e">
+      <c r="G31" s="115" t="e">
         <f>Page2!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="107" t="e">
+      <c r="H31" s="114" t="e">
         <f>Page3!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="107" t="e">
+      <c r="I31" s="114" t="e">
         <f>Page2!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="107" t="e">
+      <c r="J31" s="114" t="e">
         <f>Page2!O37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="107">
+      <c r="K31" s="116">
         <f>Page1!G36</f>
         <v>0</v>
       </c>
-      <c r="L31" s="107" t="e">
+      <c r="L31" s="114" t="e">
         <f>Page3!O37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="109">
         <v>0</v>
       </c>
-      <c r="N31" s="107">
+      <c r="N31" s="115">
         <f>Page5!D37</f>
         <v>0</v>
       </c>
@@ -11982,38 +11854,38 @@
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="F32" s="107" t="e">
+      <c r="F32" s="115" t="e">
         <f>Page3!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="107" t="e">
+      <c r="G32" s="115" t="e">
         <f>Page2!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="107" t="e">
+      <c r="H32" s="114" t="e">
         <f>Page3!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="107" t="e">
+      <c r="I32" s="114" t="e">
         <f>Page2!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="107" t="e">
+      <c r="J32" s="114" t="e">
         <f>Page2!O38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="107">
+      <c r="K32" s="116">
         <f>Page1!G37</f>
         <v>0</v>
       </c>
-      <c r="L32" s="107" t="e">
+      <c r="L32" s="114" t="e">
         <f>Page3!O38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="109">
         <v>0</v>
       </c>
-      <c r="N32" s="107">
+      <c r="N32" s="115">
         <f>Page5!D38</f>
         <v>0</v>
       </c>
@@ -12085,7 +11957,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12604,7 +12476,7 @@
         <f t="array" ref="AN4">INDEX(Page2!$K$9:$K$38, COLUMN(AN5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="94" t="e">
+      <c r="AO4" s="102" t="e">
         <f>AVERAGE(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12616,11 +12488,11 @@
         <f>(AO4-H4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="95" t="e">
+      <c r="AR4" s="118" t="e">
         <f>MIN(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="95" t="e">
+      <c r="AS4" s="118" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12780,7 +12652,7 @@
         <f t="array" ref="AN5">INDEX(Page3!$K$9:$K$38, COLUMN(AN6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO5" s="94" t="e">
+      <c r="AO5" s="102" t="e">
         <f>AVERAGE(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12792,11 +12664,11 @@
         <f>(AO5-H5)/(3*AP5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="95" t="e">
+      <c r="AR5" s="118" t="e">
         <f>MIN(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS5" s="95" t="e">
+      <c r="AS5" s="118" t="e">
         <f>MAX(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12956,7 +12828,7 @@
         <f t="array" ref="AN6">INDEX(Page2!$O$9:$O$38, COLUMN(AN7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO6" s="94" t="e">
+      <c r="AO6" s="102" t="e">
         <f>AVERAGE(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12968,11 +12840,11 @@
         <f>MIN((AO6-H6)/(3*AP6), (I6-AO6)/(3*AP6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="95" t="e">
+      <c r="AR6" s="118" t="e">
         <f>MIN(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS6" s="95" t="e">
+      <c r="AS6" s="118" t="e">
         <f>MAX(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -13132,7 +13004,7 @@
         <f t="array" ref="AN7">INDEX(Page2!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="94" t="e">
+      <c r="AO7" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -13144,11 +13016,11 @@
         <f>(AO7-H7)/(3*AP7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="95" t="e">
+      <c r="AR7" s="105" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="95" t="e">
+      <c r="AS7" s="105" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -13308,7 +13180,7 @@
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="94" t="e">
+      <c r="AO8" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -13320,11 +13192,11 @@
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="95" t="e">
+      <c r="AR8" s="105" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="95" t="e">
+      <c r="AS8" s="105" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -13660,7 +13532,7 @@
         <f t="array" ref="AN10">INDEX(Page3!$O$9:$O$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="94" t="e">
+      <c r="AO10" s="102" t="e">
         <f>AVERAGE(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -13672,11 +13544,11 @@
         <f>MIN((AO10-H10)/(3*AP10), (I10-AO10)/(3*AP10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="95" t="e">
+      <c r="AR10" s="118" t="e">
         <f>MIN(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="95" t="e">
+      <c r="AS10" s="118" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -14186,7 +14058,7 @@
         <f t="array" ref="AN13">INDEX(Page1!$J$8:$J$37, COLUMN(AN14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="94">
+      <c r="AO13" s="102">
         <f>AVERAGE(K13:AN13)</f>
         <v>0</v>
       </c>
@@ -14198,11 +14070,11 @@
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="95">
+      <c r="AR13" s="118">
         <f>MIN(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="95">
+      <c r="AS13" s="118">
         <f>MAX(K13:AN13)</f>
         <v>0</v>
       </c>
@@ -14362,7 +14234,7 @@
         <f t="array" ref="AN14">INDEX(Page4!$D$9:$D$38, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="94">
+      <c r="AO14" s="102">
         <f t="shared" ref="AO14:AO16" si="5">AVERAGE(K14:AN14)</f>
         <v>0</v>
       </c>
@@ -14374,11 +14246,11 @@
         <f>MIN((AO14-H14)/(3*AP14),(I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="95">
+      <c r="AR14" s="118">
         <f t="shared" ref="AR14:AR17" si="7">MIN(K14:AN14)</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="95">
+      <c r="AS14" s="118">
         <f t="shared" ref="AS14:AS17" si="8">MAX(K14:AN14)</f>
         <v>0</v>
       </c>
@@ -14538,7 +14410,7 @@
         <f t="array" ref="AN15">INDEX(Page4!$F$9:$F$38, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="94">
+      <c r="AO15" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14550,11 +14422,11 @@
         <f t="shared" ref="AQ15:AQ16" si="9">MIN((AO15-H15)/(3*AP15),(I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="95">
+      <c r="AR15" s="118">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="95">
+      <c r="AS15" s="118">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -14714,7 +14586,7 @@
         <f t="array" ref="AN16">INDEX(Page4!$H$9:$H$387, COLUMN(AN17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO16" s="94">
+      <c r="AO16" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14726,11 +14598,11 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="95">
+      <c r="AR16" s="118">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="95">
+      <c r="AS16" s="118">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -14769,123 +14641,123 @@
         <v>124</v>
       </c>
       <c r="K17" s="111" t="e" cm="1">
-        <f t="array" ref="K17">INDEX([1]Page4!$O$9:$O$38, COLUMN(K18)-10)</f>
+        <f t="array" ref="K17">INDEX(Page4!$O$9:$O$38, COLUMN(K18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="111" t="e" cm="1">
-        <f t="array" ref="L17">INDEX([1]Page4!$O$9:$O$38, COLUMN(L18)-10)</f>
+        <f t="array" ref="L17">INDEX(Page4!$O$9:$O$38, COLUMN(L18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="111" t="e" cm="1">
-        <f t="array" ref="M17">INDEX([1]Page4!$O$9:$O$38, COLUMN(M18)-10)</f>
+        <f t="array" ref="M17">INDEX(Page4!$O$9:$O$38, COLUMN(M18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="111" t="e" cm="1">
-        <f t="array" ref="N17">INDEX([1]Page4!$O$9:$O$38, COLUMN(N18)-10)</f>
+        <f t="array" ref="N17">INDEX(Page4!$O$9:$O$38, COLUMN(N18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="111" t="e" cm="1">
-        <f t="array" ref="O17">INDEX([1]Page4!$O$9:$O$38, COLUMN(O18)-10)</f>
+        <f t="array" ref="O17">INDEX(Page4!$O$9:$O$38, COLUMN(O18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="111" t="e" cm="1">
-        <f t="array" ref="P17">INDEX([1]Page4!$O$9:$O$38, COLUMN(P18)-10)</f>
+        <f t="array" ref="P17">INDEX(Page4!$O$9:$O$38, COLUMN(P18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="111" t="e" cm="1">
-        <f t="array" ref="Q17">INDEX([1]Page4!$O$9:$O$38, COLUMN(Q18)-10)</f>
+        <f t="array" ref="Q17">INDEX(Page4!$O$9:$O$38, COLUMN(Q18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="111" t="e" cm="1">
-        <f t="array" ref="R17">INDEX([1]Page4!$O$9:$O$38, COLUMN(R18)-10)</f>
+        <f t="array" ref="R17">INDEX(Page4!$O$9:$O$38, COLUMN(R18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S17" s="111" t="e" cm="1">
-        <f t="array" ref="S17">INDEX([1]Page4!$O$9:$O$38, COLUMN(S18)-10)</f>
+        <f t="array" ref="S17">INDEX(Page4!$O$9:$O$38, COLUMN(S18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T17" s="111" t="e" cm="1">
-        <f t="array" ref="T17">INDEX([1]Page4!$O$9:$O$38, COLUMN(T18)-10)</f>
+        <f t="array" ref="T17">INDEX(Page4!$O$9:$O$38, COLUMN(T18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U17" s="111" t="e" cm="1">
-        <f t="array" ref="U17">INDEX([1]Page4!$O$9:$O$38, COLUMN(U18)-10)</f>
+        <f t="array" ref="U17">INDEX(Page4!$O$9:$O$38, COLUMN(U18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V17" s="111" t="e" cm="1">
-        <f t="array" ref="V17">INDEX([1]Page4!$O$9:$O$38, COLUMN(V18)-10)</f>
+        <f t="array" ref="V17">INDEX(Page4!$O$9:$O$38, COLUMN(V18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W17" s="111" t="e" cm="1">
-        <f t="array" ref="W17">INDEX([1]Page4!$O$9:$O$38, COLUMN(W18)-10)</f>
+        <f t="array" ref="W17">INDEX(Page4!$O$9:$O$38, COLUMN(W18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X17" s="111" t="e" cm="1">
-        <f t="array" ref="X17">INDEX([1]Page4!$O$9:$O$38, COLUMN(X18)-10)</f>
+        <f t="array" ref="X17">INDEX(Page4!$O$9:$O$38, COLUMN(X18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y17" s="111" t="e" cm="1">
-        <f t="array" ref="Y17">INDEX([1]Page4!$O$9:$O$38, COLUMN(Y18)-10)</f>
+        <f t="array" ref="Y17">INDEX(Page4!$O$9:$O$38, COLUMN(Y18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z17" s="111" t="e" cm="1">
-        <f t="array" ref="Z17">INDEX([1]Page4!$O$9:$O$38, COLUMN(Z18)-10)</f>
+        <f t="array" ref="Z17">INDEX(Page4!$O$9:$O$38, COLUMN(Z18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA17" s="111" t="e" cm="1">
-        <f t="array" ref="AA17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AA18)-10)</f>
+        <f t="array" ref="AA17">INDEX(Page4!$O$9:$O$38, COLUMN(AA18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB17" s="111" t="e" cm="1">
-        <f t="array" ref="AB17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AB18)-10)</f>
+        <f t="array" ref="AB17">INDEX(Page4!$O$9:$O$38, COLUMN(AB18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC17" s="111" t="e" cm="1">
-        <f t="array" ref="AC17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AC18)-10)</f>
+        <f t="array" ref="AC17">INDEX(Page4!$O$9:$O$38, COLUMN(AC18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="111" t="e" cm="1">
-        <f t="array" ref="AD17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AD18)-10)</f>
+        <f t="array" ref="AD17">INDEX(Page4!$O$9:$O$38, COLUMN(AD18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE17" s="111" t="e" cm="1">
-        <f t="array" ref="AE17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AE18)-10)</f>
+        <f t="array" ref="AE17">INDEX(Page4!$O$9:$O$38, COLUMN(AE18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF17" s="111" t="e" cm="1">
-        <f t="array" ref="AF17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AF18)-10)</f>
+        <f t="array" ref="AF17">INDEX(Page4!$O$9:$O$38, COLUMN(AF18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG17" s="111" t="e" cm="1">
-        <f t="array" ref="AG17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AG18)-10)</f>
+        <f t="array" ref="AG17">INDEX(Page4!$O$9:$O$38, COLUMN(AG18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH17" s="111" t="e" cm="1">
-        <f t="array" ref="AH17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AH18)-10)</f>
+        <f t="array" ref="AH17">INDEX(Page4!$O$9:$O$38, COLUMN(AH18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI17" s="111" t="e" cm="1">
-        <f t="array" ref="AI17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AI18)-10)</f>
+        <f t="array" ref="AI17">INDEX(Page4!$O$9:$O$38, COLUMN(AI18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ17" s="111" t="e" cm="1">
-        <f t="array" ref="AJ17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AJ18)-10)</f>
+        <f t="array" ref="AJ17">INDEX(Page4!$O$9:$O$38, COLUMN(AJ18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK17" s="111" t="e" cm="1">
-        <f t="array" ref="AK17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AK18)-10)</f>
+        <f t="array" ref="AK17">INDEX(Page4!$O$9:$O$38, COLUMN(AK18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL17" s="111" t="e" cm="1">
-        <f t="array" ref="AL17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AL18)-10)</f>
+        <f t="array" ref="AL17">INDEX(Page4!$O$9:$O$38, COLUMN(AL18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM17" s="111" t="e" cm="1">
-        <f t="array" ref="AM17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AM18)-10)</f>
+        <f t="array" ref="AM17">INDEX(Page4!$O$9:$O$38, COLUMN(AM18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN17" s="111" t="e" cm="1">
-        <f t="array" ref="AN17">INDEX([1]Page4!$O$9:$O$38, COLUMN(AN18)-10)</f>
+        <f t="array" ref="AN17">INDEX(Page4!$O$9:$O$38, COLUMN(AN18)-10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO17" s="102" t="e">
@@ -14900,11 +14772,11 @@
         <f>(I17-AO17)/(3*AP17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR17" s="105" t="e">
+      <c r="AR17" s="118" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS17" s="105" t="e">
+      <c r="AS17" s="118" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>

--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0488F-7684-4FB7-9FEA-68AC2F6BD1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE35103-39DD-4098-826B-B51BBF39919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1832,9 +1832,121 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1847,88 +1959,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1939,185 +1980,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2130,57 +2033,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2254,101 +2334,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2365,60 +2420,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2440,90 +2494,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3041,61 +3041,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3105,607 +3105,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="168"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144" t="s">
+      <c r="I4" s="168"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="197"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="204" t="s">
+      <c r="E5" s="161"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="205"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="196" t="s">
+      <c r="I5" s="171"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="200"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="201"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="165"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="190"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="182"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="182" t="s">
+      <c r="A7" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="182" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="186" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="182" t="s">
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="191"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="119"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="149"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="133"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="140"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="149"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="149"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="133"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="140"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="149"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="149"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="149"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="133"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="133"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="140"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="149"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="119"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="149"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="133"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="140"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="149"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="149"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="133"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="140"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="149"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="149"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="149"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="133"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="140"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="149"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="149"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="133"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="140"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="119"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="149"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="119"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="149"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="133"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="140"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="149"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="212"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="128"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3713,30 +3713,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="147" t="e">
+      <c r="D38" s="190" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="156" t="e">
+      <c r="E38" s="191"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="199" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="157"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159" t="e">
+      <c r="H38" s="200"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="160"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="147" t="e">
+      <c r="K38" s="203"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="190" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="148"/>
-      <c r="O38" s="162"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="205"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3744,30 +3744,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="150">
+      <c r="D39" s="193">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="163">
+      <c r="E39" s="194"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="206">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="166">
+      <c r="H39" s="207"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="150">
+      <c r="K39" s="210"/>
+      <c r="L39" s="211"/>
+      <c r="M39" s="193">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="151"/>
-      <c r="O39" s="169"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="212"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3775,60 +3775,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="153">
+      <c r="D40" s="196">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="154"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="170">
+      <c r="E40" s="197"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="213">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173">
+      <c r="H40" s="214"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="174"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="153">
+      <c r="K40" s="217"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="196">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="154"/>
-      <c r="O40" s="176"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="219"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="214" t="s">
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="214"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="215" t="s">
+      <c r="J41" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="215"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="216"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3837,38 +3837,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="219" t="s">
+      <c r="G43" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="219"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3879,10 +3879,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="220" t="s">
+      <c r="M44" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="220"/>
+      <c r="N44" s="119"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3898,72 +3898,184 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="117"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="117"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
-      <c r="N75" s="146"/>
-      <c r="O75" s="146"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="117"/>
+      <c r="O75" s="117"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="117"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
-      <c r="N76" s="146"/>
-      <c r="O76" s="146"/>
+      <c r="L76" s="117"/>
+      <c r="M76" s="117"/>
+      <c r="N76" s="117"/>
+      <c r="O76" s="117"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
-      <c r="N77" s="146"/>
-      <c r="O77" s="146"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="117"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G26:I26"/>
@@ -3988,140 +4100,28 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -4172,61 +4172,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -4236,130 +4236,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="255">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="256"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="258"/>
+      <c r="G4" s="259">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="259"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="259">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="259"/>
+      <c r="L4" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="261">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="255">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="262"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="221">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="247"/>
+      <c r="G5" s="221">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="221">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="263">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="162">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="222"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="232"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="223" t="s">
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="226"/>
+      <c r="M7" s="250"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="252"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5453,27 +5453,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="239" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="240"/>
+      <c r="F39" s="240"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="242" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="243"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="242" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="243"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="245"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5481,27 +5481,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="236" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="233" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="234"/>
+      <c r="J40" s="234"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="233" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="234"/>
+      <c r="O40" s="246"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5509,57 +5509,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="227" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="228"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="223" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="223" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="226"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5568,39 +5568,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="118" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5611,10 +5611,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="119"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5635,6 +5635,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="L43:N43"/>
@@ -5651,31 +5676,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
@@ -5717,61 +5717,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5781,130 +5781,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="255">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="256"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="258"/>
+      <c r="G4" s="259">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="259"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="259">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="259"/>
+      <c r="L4" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="261">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="255">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="262"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="221">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="247"/>
+      <c r="G5" s="221">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="221">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="263">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="162">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="222"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="232"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="267" t="s">
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
-      <c r="O7" s="269"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="271"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -7001,27 +7001,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="239" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="240"/>
+      <c r="F39" s="240"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="242" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="243"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="242" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="243"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="245"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -7029,27 +7029,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="236" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="233" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="234"/>
+      <c r="J40" s="234"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="233" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="234"/>
+      <c r="O40" s="246"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -7057,57 +7057,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="227" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="228"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="223" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="223" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="226"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="267"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="268"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -7116,39 +7116,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="118" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -7159,25 +7159,31 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="119"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -7193,22 +7199,16 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
@@ -7250,61 +7250,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -7314,81 +7314,81 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="255">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="256"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="258"/>
+      <c r="G4" s="259">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="259"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="259">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="259"/>
+      <c r="L4" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="261">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="255">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="262"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="221">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="247"/>
+      <c r="G5" s="221">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="221">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="263">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="162">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="222"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="287" t="s">
@@ -7431,23 +7431,23 @@
         <v>39</v>
       </c>
       <c r="K7" s="284"/>
-      <c r="L7" s="229" t="s">
+      <c r="L7" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="236"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="262"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="189"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="181"/>
       <c r="J8" s="285"/>
       <c r="K8" s="286"/>
       <c r="L8" s="49">
@@ -7476,14 +7476,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="292"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7505,14 +7505,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="126"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="166"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7534,14 +7534,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="126"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="166"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7563,14 +7563,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="126"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="166"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7592,14 +7592,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="126"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="166"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7621,14 +7621,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="126"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="166"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7650,14 +7650,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="126"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="166"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7679,14 +7679,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="126"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="166"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7708,14 +7708,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="126"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="166"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7737,14 +7737,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="126"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7766,14 +7766,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="126"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="166"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7795,14 +7795,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="126"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="166"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7824,14 +7824,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="126"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="166"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7853,14 +7853,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="126"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="166"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7882,14 +7882,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="126"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="166"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7911,14 +7911,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="126"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="166"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7940,14 +7940,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="126"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="166"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7969,14 +7969,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="126"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="166"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7998,14 +7998,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="126"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="166"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -8027,14 +8027,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="126"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="166"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -8056,14 +8056,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="126"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="166"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -8085,14 +8085,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="126"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="166"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -8114,14 +8114,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="126"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="166"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -8143,14 +8143,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="126"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="166"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -8172,14 +8172,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="126"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="166"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -8201,14 +8201,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="126"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="166"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -8230,14 +8230,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="126"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="166"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -8259,14 +8259,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="126"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="166"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -8288,14 +8288,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="126"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="166"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -8317,14 +8317,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="179"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="220"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8339,33 +8339,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="159" t="e">
+      <c r="D39" s="202" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="159" t="e">
+      <c r="E39" s="204"/>
+      <c r="F39" s="202" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="161"/>
-      <c r="H39" s="159" t="e">
+      <c r="G39" s="204"/>
+      <c r="H39" s="202" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="161"/>
-      <c r="J39" s="147" t="e">
+      <c r="I39" s="204"/>
+      <c r="J39" s="190" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="149"/>
-      <c r="L39" s="256" t="e">
+      <c r="K39" s="192"/>
+      <c r="L39" s="242" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="243"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="245"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8373,33 +8373,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="291">
+      <c r="D40" s="274">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="292"/>
-      <c r="F40" s="166">
+      <c r="E40" s="275"/>
+      <c r="F40" s="209">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="168"/>
-      <c r="H40" s="166">
+      <c r="G40" s="211"/>
+      <c r="H40" s="209">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="168"/>
-      <c r="J40" s="150">
+      <c r="I40" s="211"/>
+      <c r="J40" s="193">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="152"/>
-      <c r="L40" s="247" t="e">
+      <c r="K40" s="195"/>
+      <c r="L40" s="233" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="234"/>
+      <c r="O40" s="246"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8407,63 +8407,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="272">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="290"/>
-      <c r="F41" s="173">
+      <c r="E41" s="273"/>
+      <c r="F41" s="216">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="175"/>
-      <c r="H41" s="173">
+      <c r="G41" s="218"/>
+      <c r="H41" s="216">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="175"/>
-      <c r="J41" s="153">
+      <c r="I41" s="218"/>
+      <c r="J41" s="196">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="263" t="e">
+      <c r="K41" s="198"/>
+      <c r="L41" s="223" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="226"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="267"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="268"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8472,39 +8472,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="118" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8515,15 +8515,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="119"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="219"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8534,161 +8534,13 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="220"/>
-      <c r="N46" s="220"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8713,6 +8565,154 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="notBetween">
@@ -8766,61 +8766,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="189"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -8830,90 +8830,90 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="255">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="256"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="258" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="258"/>
+      <c r="G4" s="259">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="259"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="259">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="259"/>
+      <c r="L4" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="261">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="255">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="262"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="221">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="247"/>
+      <c r="G5" s="221">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="221">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="263">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="162">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="222"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="191"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="183"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -8926,38 +8926,38 @@
       <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="303"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="305" t="s">
+      <c r="A7" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="317"/>
+      <c r="C7" s="318"/>
+      <c r="D7" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="306"/>
+      <c r="E7" s="320"/>
       <c r="F7" s="280"/>
       <c r="G7" s="280"/>
       <c r="H7" s="280"/>
       <c r="I7" s="280"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="295"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="309"/>
+      <c r="N7" s="309"/>
+      <c r="O7" s="311"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="310"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -8976,16 +8976,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="296">
-        <v>0</v>
-      </c>
-      <c r="E9" s="297"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="D9" s="312">
+        <v>0</v>
+      </c>
+      <c r="E9" s="313"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="304"/>
+      <c r="K9" s="304"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
@@ -9004,16 +9004,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="309">
-        <v>0</v>
-      </c>
-      <c r="E10" s="310"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
+      <c r="D10" s="307">
+        <v>0</v>
+      </c>
+      <c r="E10" s="308"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="304"/>
+      <c r="K10" s="304"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
@@ -9032,16 +9032,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="309">
-        <v>0</v>
-      </c>
-      <c r="E11" s="310"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
+      <c r="D11" s="307">
+        <v>0</v>
+      </c>
+      <c r="E11" s="308"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
+      <c r="K11" s="304"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
@@ -9060,16 +9060,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="309">
-        <v>0</v>
-      </c>
-      <c r="E12" s="310"/>
-      <c r="F12" s="298"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
+      <c r="D12" s="307">
+        <v>0</v>
+      </c>
+      <c r="E12" s="308"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="303"/>
+      <c r="I12" s="303"/>
+      <c r="J12" s="304"/>
+      <c r="K12" s="304"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
@@ -9088,16 +9088,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="309">
-        <v>0</v>
-      </c>
-      <c r="E13" s="310"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="298"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
+      <c r="D13" s="307">
+        <v>0</v>
+      </c>
+      <c r="E13" s="308"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="304"/>
+      <c r="K13" s="304"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -9116,16 +9116,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="309">
-        <v>0</v>
-      </c>
-      <c r="E14" s="310"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="298"/>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
+      <c r="D14" s="307">
+        <v>0</v>
+      </c>
+      <c r="E14" s="308"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="303"/>
+      <c r="I14" s="303"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="304"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -9144,16 +9144,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="309">
-        <v>0</v>
-      </c>
-      <c r="E15" s="310"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
+      <c r="D15" s="307">
+        <v>0</v>
+      </c>
+      <c r="E15" s="308"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="303"/>
+      <c r="J15" s="304"/>
+      <c r="K15" s="304"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -9172,16 +9172,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="309">
-        <v>0</v>
-      </c>
-      <c r="E16" s="310"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="298"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
+      <c r="D16" s="307">
+        <v>0</v>
+      </c>
+      <c r="E16" s="308"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
+      <c r="J16" s="304"/>
+      <c r="K16" s="304"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -9200,16 +9200,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="309">
-        <v>0</v>
-      </c>
-      <c r="E17" s="310"/>
-      <c r="F17" s="298"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="298"/>
-      <c r="I17" s="298"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
+      <c r="D17" s="307">
+        <v>0</v>
+      </c>
+      <c r="E17" s="308"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="304"/>
+      <c r="K17" s="304"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9228,16 +9228,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="309">
-        <v>0</v>
-      </c>
-      <c r="E18" s="310"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="298"/>
-      <c r="I18" s="298"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
+      <c r="D18" s="307">
+        <v>0</v>
+      </c>
+      <c r="E18" s="308"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="303"/>
+      <c r="I18" s="303"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="304"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -9256,16 +9256,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="309">
-        <v>0</v>
-      </c>
-      <c r="E19" s="310"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="298"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
+      <c r="D19" s="307">
+        <v>0</v>
+      </c>
+      <c r="E19" s="308"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="303"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="304"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
@@ -9284,16 +9284,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="309">
-        <v>0</v>
-      </c>
-      <c r="E20" s="310"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="298"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
+      <c r="D20" s="307">
+        <v>0</v>
+      </c>
+      <c r="E20" s="308"/>
+      <c r="F20" s="303"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="303"/>
+      <c r="I20" s="303"/>
+      <c r="J20" s="304"/>
+      <c r="K20" s="304"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -9312,16 +9312,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="309">
-        <v>0</v>
-      </c>
-      <c r="E21" s="310"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="298"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
+      <c r="D21" s="307">
+        <v>0</v>
+      </c>
+      <c r="E21" s="308"/>
+      <c r="F21" s="303"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="303"/>
+      <c r="I21" s="303"/>
+      <c r="J21" s="304"/>
+      <c r="K21" s="304"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
@@ -9340,16 +9340,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="309">
-        <v>0</v>
-      </c>
-      <c r="E22" s="310"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="298"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
+      <c r="D22" s="307">
+        <v>0</v>
+      </c>
+      <c r="E22" s="308"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="303"/>
+      <c r="J22" s="304"/>
+      <c r="K22" s="304"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
@@ -9368,16 +9368,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="309">
-        <v>0</v>
-      </c>
-      <c r="E23" s="310"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="298"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="299"/>
+      <c r="D23" s="307">
+        <v>0</v>
+      </c>
+      <c r="E23" s="308"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="303"/>
+      <c r="I23" s="303"/>
+      <c r="J23" s="304"/>
+      <c r="K23" s="304"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -9396,16 +9396,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="309">
-        <v>0</v>
-      </c>
-      <c r="E24" s="310"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="298"/>
-      <c r="I24" s="298"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
+      <c r="D24" s="307">
+        <v>0</v>
+      </c>
+      <c r="E24" s="308"/>
+      <c r="F24" s="303"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="303"/>
+      <c r="I24" s="303"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="304"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
@@ -9424,16 +9424,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="309">
-        <v>0</v>
-      </c>
-      <c r="E25" s="310"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="298"/>
-      <c r="I25" s="298"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="299"/>
+      <c r="D25" s="307">
+        <v>0</v>
+      </c>
+      <c r="E25" s="308"/>
+      <c r="F25" s="303"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="303"/>
+      <c r="I25" s="303"/>
+      <c r="J25" s="304"/>
+      <c r="K25" s="304"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
@@ -9452,16 +9452,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="309">
-        <v>0</v>
-      </c>
-      <c r="E26" s="310"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="298"/>
-      <c r="I26" s="298"/>
-      <c r="J26" s="299"/>
-      <c r="K26" s="299"/>
+      <c r="D26" s="307">
+        <v>0</v>
+      </c>
+      <c r="E26" s="308"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="303"/>
+      <c r="I26" s="303"/>
+      <c r="J26" s="304"/>
+      <c r="K26" s="304"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -9480,16 +9480,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="309">
-        <v>0</v>
-      </c>
-      <c r="E27" s="310"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="298"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
+      <c r="D27" s="307">
+        <v>0</v>
+      </c>
+      <c r="E27" s="308"/>
+      <c r="F27" s="303"/>
+      <c r="G27" s="303"/>
+      <c r="H27" s="303"/>
+      <c r="I27" s="303"/>
+      <c r="J27" s="304"/>
+      <c r="K27" s="304"/>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -9508,16 +9508,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="309">
-        <v>0</v>
-      </c>
-      <c r="E28" s="310"/>
-      <c r="F28" s="298"/>
-      <c r="G28" s="298"/>
-      <c r="H28" s="298"/>
-      <c r="I28" s="298"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
+      <c r="D28" s="307">
+        <v>0</v>
+      </c>
+      <c r="E28" s="308"/>
+      <c r="F28" s="303"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="303"/>
+      <c r="I28" s="303"/>
+      <c r="J28" s="304"/>
+      <c r="K28" s="304"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -9536,16 +9536,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="309">
-        <v>0</v>
-      </c>
-      <c r="E29" s="310"/>
-      <c r="F29" s="298"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="298"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="299"/>
+      <c r="D29" s="307">
+        <v>0</v>
+      </c>
+      <c r="E29" s="308"/>
+      <c r="F29" s="303"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="303"/>
+      <c r="I29" s="303"/>
+      <c r="J29" s="304"/>
+      <c r="K29" s="304"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9564,16 +9564,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="309">
-        <v>0</v>
-      </c>
-      <c r="E30" s="310"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
-      <c r="J30" s="299"/>
-      <c r="K30" s="299"/>
+      <c r="D30" s="307">
+        <v>0</v>
+      </c>
+      <c r="E30" s="308"/>
+      <c r="F30" s="303"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="303"/>
+      <c r="I30" s="303"/>
+      <c r="J30" s="304"/>
+      <c r="K30" s="304"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
@@ -9592,16 +9592,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="309">
-        <v>0</v>
-      </c>
-      <c r="E31" s="310"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="299"/>
+      <c r="D31" s="307">
+        <v>0</v>
+      </c>
+      <c r="E31" s="308"/>
+      <c r="F31" s="303"/>
+      <c r="G31" s="303"/>
+      <c r="H31" s="303"/>
+      <c r="I31" s="303"/>
+      <c r="J31" s="304"/>
+      <c r="K31" s="304"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -9620,16 +9620,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="309">
-        <v>0</v>
-      </c>
-      <c r="E32" s="310"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
-      <c r="J32" s="299"/>
-      <c r="K32" s="299"/>
+      <c r="D32" s="307">
+        <v>0</v>
+      </c>
+      <c r="E32" s="308"/>
+      <c r="F32" s="303"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="303"/>
+      <c r="I32" s="303"/>
+      <c r="J32" s="304"/>
+      <c r="K32" s="304"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -9648,16 +9648,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="309">
-        <v>0</v>
-      </c>
-      <c r="E33" s="310"/>
-      <c r="F33" s="298"/>
-      <c r="G33" s="298"/>
-      <c r="H33" s="298"/>
-      <c r="I33" s="298"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
+      <c r="D33" s="307">
+        <v>0</v>
+      </c>
+      <c r="E33" s="308"/>
+      <c r="F33" s="303"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="303"/>
+      <c r="I33" s="303"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="304"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -9676,16 +9676,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="309">
-        <v>0</v>
-      </c>
-      <c r="E34" s="310"/>
-      <c r="F34" s="298"/>
-      <c r="G34" s="298"/>
-      <c r="H34" s="298"/>
-      <c r="I34" s="298"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
+      <c r="D34" s="307">
+        <v>0</v>
+      </c>
+      <c r="E34" s="308"/>
+      <c r="F34" s="303"/>
+      <c r="G34" s="303"/>
+      <c r="H34" s="303"/>
+      <c r="I34" s="303"/>
+      <c r="J34" s="304"/>
+      <c r="K34" s="304"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -9704,16 +9704,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="309">
-        <v>0</v>
-      </c>
-      <c r="E35" s="310"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="298"/>
-      <c r="H35" s="298"/>
-      <c r="I35" s="298"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
+      <c r="D35" s="307">
+        <v>0</v>
+      </c>
+      <c r="E35" s="308"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="303"/>
+      <c r="H35" s="303"/>
+      <c r="I35" s="303"/>
+      <c r="J35" s="304"/>
+      <c r="K35" s="304"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -9732,16 +9732,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="309">
-        <v>0</v>
-      </c>
-      <c r="E36" s="310"/>
-      <c r="F36" s="298"/>
-      <c r="G36" s="298"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="298"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
+      <c r="D36" s="307">
+        <v>0</v>
+      </c>
+      <c r="E36" s="308"/>
+      <c r="F36" s="303"/>
+      <c r="G36" s="303"/>
+      <c r="H36" s="303"/>
+      <c r="I36" s="303"/>
+      <c r="J36" s="304"/>
+      <c r="K36" s="304"/>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
       <c r="N36" s="62"/>
@@ -9760,16 +9760,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="309">
-        <v>0</v>
-      </c>
-      <c r="E37" s="310"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="298"/>
-      <c r="H37" s="298"/>
-      <c r="I37" s="298"/>
-      <c r="J37" s="299"/>
-      <c r="K37" s="299"/>
+      <c r="D37" s="307">
+        <v>0</v>
+      </c>
+      <c r="E37" s="308"/>
+      <c r="F37" s="303"/>
+      <c r="G37" s="303"/>
+      <c r="H37" s="303"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="304"/>
+      <c r="K37" s="304"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
@@ -9788,16 +9788,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="319">
-        <v>0</v>
-      </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="298"/>
-      <c r="G38" s="298"/>
-      <c r="H38" s="298"/>
-      <c r="I38" s="298"/>
-      <c r="J38" s="299"/>
-      <c r="K38" s="299"/>
+      <c r="D38" s="301">
+        <v>0</v>
+      </c>
+      <c r="E38" s="302"/>
+      <c r="F38" s="303"/>
+      <c r="G38" s="303"/>
+      <c r="H38" s="303"/>
+      <c r="I38" s="303"/>
+      <c r="J38" s="304"/>
+      <c r="K38" s="304"/>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -9809,17 +9809,17 @@
       <c r="C39" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="321">
+      <c r="D39" s="305">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="322"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="318"/>
+      <c r="E39" s="306"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="299"/>
+      <c r="H39" s="299"/>
+      <c r="I39" s="299"/>
+      <c r="J39" s="300"/>
+      <c r="K39" s="300"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
@@ -9831,17 +9831,17 @@
       <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="315">
+      <c r="D40" s="297">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="316"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="299"/>
+      <c r="G40" s="299"/>
+      <c r="H40" s="299"/>
+      <c r="I40" s="299"/>
+      <c r="J40" s="300"/>
+      <c r="K40" s="300"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
@@ -9853,17 +9853,17 @@
       <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="311">
+      <c r="D41" s="293">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="313"/>
-      <c r="I41" s="313"/>
-      <c r="J41" s="314"/>
-      <c r="K41" s="314"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="295"/>
+      <c r="J41" s="296"/>
+      <c r="K41" s="296"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -9873,31 +9873,31 @@
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -9906,39 +9906,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="118" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -9949,143 +9949,35 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="119"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="166">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -10104,26 +9996,134 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F38 F39:G41">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="notBetween">
@@ -11949,7 +11949,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+      <selection activeCell="AO28" sqref="AO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE35103-39DD-4098-826B-B51BBF39919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7862D68-6FED-45C5-87B7-856A0E0C451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1460,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1835,141 +1835,100 @@
     <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1980,6 +1939,151 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2012,15 +2116,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2033,234 +2130,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2334,19 +2254,158 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2361,65 +2420,73 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2452,78 +2519,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3041,61 +3044,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="189" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3105,607 +3108,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="155" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="168"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155" t="s">
+      <c r="I4" s="145"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="156"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="157"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="170" t="s">
+      <c r="E5" s="197"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="171"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="160" t="s">
+      <c r="I5" s="205"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="164"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="165"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="201"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="182"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="190"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="174" t="s">
+      <c r="A7" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="174" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="178" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="174" t="s">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="191"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="149"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="119"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="140"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="133"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="149"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="149"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="140"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="149"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="119"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="149"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="149"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="133"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="149"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="149"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="133"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="149"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="119"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="149"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="119"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="133"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="149"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="149"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="119"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="140"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="133"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="149"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="119"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="149"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="119"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="149"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="119"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="133"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="149"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="119"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="149"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="119"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="133"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="149"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="119"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="149"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="119"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="140"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="133"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="149"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="220"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="128"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="210"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="212"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3713,30 +3716,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="190" t="e">
+      <c r="D38" s="147" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="191"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="199" t="e">
+      <c r="E38" s="148"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="156" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="200"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="202" t="e">
+      <c r="H38" s="157"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="203"/>
-      <c r="L38" s="204"/>
-      <c r="M38" s="190" t="e">
+      <c r="K38" s="160"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="147" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="191"/>
-      <c r="O38" s="205"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="162"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3744,30 +3747,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="193">
+      <c r="D39" s="150">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="194"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="206">
+      <c r="E39" s="151"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="163">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="207"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209">
+      <c r="H39" s="164"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="166">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="210"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="193">
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="150">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="194"/>
-      <c r="O39" s="212"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="169"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3775,60 +3778,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="196">
+      <c r="D40" s="153">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="197"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="213">
+      <c r="E40" s="154"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="170">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="214"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216">
+      <c r="H40" s="171"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="217"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="196">
+      <c r="K40" s="174"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="153">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="197"/>
-      <c r="O40" s="219"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="176"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130" t="s">
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="130"/>
+      <c r="E41" s="214"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="131" t="s">
+      <c r="J41" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="131"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3837,38 +3840,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="118" t="s">
+      <c r="G43" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="219"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="118"/>
+      <c r="B44" s="219"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3879,10 +3882,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="119" t="s">
+      <c r="M44" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="119"/>
+      <c r="N44" s="220"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3898,50 +3901,206 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="117"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="146"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="146"/>
+      <c r="I76" s="146"/>
+      <c r="J76" s="146"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
+      <c r="L76" s="146"/>
+      <c r="M76" s="146"/>
+      <c r="N76" s="146"/>
+      <c r="O76" s="146"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="117"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="146"/>
+      <c r="N77" s="146"/>
+      <c r="O77" s="146"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:L30"/>
@@ -3966,162 +4125,6 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -4172,61 +4175,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="189" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -4236,130 +4239,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="255">
+      <c r="B4" s="229">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="259">
+      <c r="F4" s="232"/>
+      <c r="G4" s="233">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="259"/>
+      <c r="H4" s="233"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="259">
+      <c r="J4" s="233">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260" t="s">
+      <c r="K4" s="233"/>
+      <c r="L4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="235">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="255">
+      <c r="N4" s="229">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="262"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="221">
+      <c r="B5" s="261">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="247" t="s">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="221">
+      <c r="F5" s="221"/>
+      <c r="G5" s="261">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="221">
+      <c r="J5" s="261">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="170" t="s">
+      <c r="K5" s="261"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="263">
+      <c r="M5" s="237">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="198">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="222"/>
+      <c r="O5" s="262"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="232"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="245"/>
+      <c r="N6" s="245"/>
+      <c r="O6" s="246"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="248" t="s">
+      <c r="A7" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="220"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="249" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="249" t="s">
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="252"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="226"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="266"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
+      <c r="A8" s="240"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5453,27 +5456,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="239" t="e">
+      <c r="D39" s="253" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="242" t="e">
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="256" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="243"/>
-      <c r="J39" s="243"/>
-      <c r="K39" s="244"/>
-      <c r="L39" s="242" t="e">
+      <c r="I39" s="257"/>
+      <c r="J39" s="257"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="256" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="243"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="245"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="259"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5481,27 +5484,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="236" t="e">
+      <c r="D40" s="250" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="237"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="233" t="e">
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="247" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="235"/>
-      <c r="L40" s="233" t="e">
+      <c r="I40" s="248"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="249"/>
+      <c r="L40" s="247" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="246"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="260"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5509,57 +5512,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="227" t="e">
+      <c r="D41" s="241" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="228"/>
-      <c r="F41" s="228"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="223" t="e">
+      <c r="E41" s="242"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="263" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="223" t="e">
+      <c r="I41" s="264"/>
+      <c r="J41" s="264"/>
+      <c r="K41" s="265"/>
+      <c r="L41" s="263" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="226"/>
+      <c r="M41" s="264"/>
+      <c r="N41" s="264"/>
+      <c r="O41" s="266"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="130" t="s">
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="130"/>
+      <c r="E42" s="214"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="131" t="s">
+      <c r="J42" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5568,39 +5571,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="L43" s="218"/>
+      <c r="M43" s="218"/>
+      <c r="N43" s="218"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="118" t="str">
+      <c r="G44" s="219" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5611,10 +5614,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="119"/>
+      <c r="N45" s="220"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5635,6 +5638,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:K7"/>
@@ -5651,31 +5679,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
@@ -5717,61 +5720,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="189" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5781,130 +5784,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="255">
+      <c r="B4" s="229">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="259">
+      <c r="F4" s="232"/>
+      <c r="G4" s="233">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="259"/>
+      <c r="H4" s="233"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="259">
+      <c r="J4" s="233">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260" t="s">
+      <c r="K4" s="233"/>
+      <c r="L4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="235">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="255">
+      <c r="N4" s="229">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="262"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="221">
+      <c r="B5" s="261">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="247" t="s">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="221">
+      <c r="F5" s="221"/>
+      <c r="G5" s="261">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="221">
+      <c r="J5" s="261">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="170" t="s">
+      <c r="K5" s="261"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="263">
+      <c r="M5" s="237">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="198">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="222"/>
+      <c r="O5" s="262"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="232"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="245"/>
+      <c r="N6" s="245"/>
+      <c r="O6" s="246"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="248" t="s">
+      <c r="A7" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="220"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="249" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="269" t="s">
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="271"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="268"/>
+      <c r="O7" s="269"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="266"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
+      <c r="A8" s="240"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -7001,27 +7004,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="239" t="e">
+      <c r="D39" s="253" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="242" t="e">
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="256" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="243"/>
-      <c r="J39" s="243"/>
-      <c r="K39" s="244"/>
-      <c r="L39" s="242" t="e">
+      <c r="I39" s="257"/>
+      <c r="J39" s="257"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="256" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="243"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="245"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="259"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -7029,27 +7032,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="236" t="e">
+      <c r="D40" s="250" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="237"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="233" t="e">
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="247" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="235"/>
-      <c r="L40" s="233" t="e">
+      <c r="I40" s="248"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="249"/>
+      <c r="L40" s="247" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="246"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="260"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -7057,57 +7060,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="227" t="e">
+      <c r="D41" s="241" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="228"/>
-      <c r="F41" s="228"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="223" t="e">
+      <c r="E41" s="242"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="263" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="223" t="e">
+      <c r="I41" s="264"/>
+      <c r="J41" s="264"/>
+      <c r="K41" s="265"/>
+      <c r="L41" s="263" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="226"/>
+      <c r="M41" s="264"/>
+      <c r="N41" s="264"/>
+      <c r="O41" s="266"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="267"/>
-      <c r="C42" s="267"/>
-      <c r="D42" s="130" t="s">
+      <c r="B42" s="270"/>
+      <c r="C42" s="270"/>
+      <c r="D42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="130"/>
+      <c r="E42" s="214"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="131" t="s">
+      <c r="J42" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="268"/>
-      <c r="C43" s="268"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="271"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -7116,39 +7119,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="L43" s="218"/>
+      <c r="M43" s="218"/>
+      <c r="N43" s="218"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="118" t="str">
+      <c r="G44" s="219" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -7159,31 +7162,25 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="119"/>
+      <c r="N45" s="220"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -7199,16 +7196,22 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
@@ -7250,61 +7253,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="189" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -7314,81 +7317,81 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="255">
+      <c r="B4" s="229">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="259">
+      <c r="F4" s="232"/>
+      <c r="G4" s="233">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="259"/>
+      <c r="H4" s="233"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="259">
+      <c r="J4" s="233">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260" t="s">
+      <c r="K4" s="233"/>
+      <c r="L4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="235">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="255">
+      <c r="N4" s="229">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="262"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="221">
+      <c r="B5" s="261">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="247" t="s">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="221">
+      <c r="F5" s="221"/>
+      <c r="G5" s="261">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="221">
+      <c r="J5" s="261">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="170" t="s">
+      <c r="K5" s="261"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="263">
+      <c r="M5" s="237">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="198">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="222"/>
+      <c r="O5" s="262"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="287" t="s">
@@ -7431,23 +7434,23 @@
         <v>39</v>
       </c>
       <c r="K7" s="284"/>
-      <c r="L7" s="255" t="s">
+      <c r="L7" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="262"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="236"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="266"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="181"/>
+      <c r="A8" s="240"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="285"/>
       <c r="K8" s="286"/>
       <c r="L8" s="49">
@@ -7476,14 +7479,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="292"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7505,14 +7508,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="166"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="126"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7534,14 +7537,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="166"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="126"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7563,14 +7566,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="166"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="126"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7592,14 +7595,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="166"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="126"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7621,14 +7624,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="166"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="126"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7650,14 +7653,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="166"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="126"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7679,14 +7682,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="166"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="126"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7708,14 +7711,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="166"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="126"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7737,14 +7740,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="166"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="126"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7766,14 +7769,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="166"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="126"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7795,14 +7798,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="166"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="126"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7824,14 +7827,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="166"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="126"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7853,14 +7856,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="166"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="126"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7882,14 +7885,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="144"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="166"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="126"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7911,14 +7914,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="166"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="126"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7940,14 +7943,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="144"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="166"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="126"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7969,14 +7972,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="166"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="126"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7998,14 +8001,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="144"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="166"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="126"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -8027,14 +8030,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="166"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="126"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -8056,14 +8059,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="144"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="166"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="126"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -8085,14 +8088,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="166"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="126"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -8114,14 +8117,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="144"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="166"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="126"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -8143,14 +8146,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="166"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="126"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -8172,14 +8175,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="144"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="166"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="126"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -8201,14 +8204,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="166"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="126"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -8230,14 +8233,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="166"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="126"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -8259,14 +8262,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="166"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="126"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -8288,14 +8291,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="166"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="126"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -8317,14 +8320,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="220"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="179"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8339,33 +8342,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="202" t="e">
+      <c r="D39" s="159" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="202" t="e">
+      <c r="E39" s="161"/>
+      <c r="F39" s="159" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="204"/>
-      <c r="H39" s="202" t="e">
+      <c r="G39" s="161"/>
+      <c r="H39" s="159" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="190" t="e">
+      <c r="I39" s="161"/>
+      <c r="J39" s="147" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="192"/>
-      <c r="L39" s="242" t="e">
+      <c r="K39" s="149"/>
+      <c r="L39" s="256" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="243"/>
-      <c r="N39" s="243"/>
-      <c r="O39" s="245"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="259"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8373,33 +8376,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="274">
+      <c r="D40" s="291">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="275"/>
-      <c r="F40" s="209">
+      <c r="E40" s="292"/>
+      <c r="F40" s="166">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="211"/>
-      <c r="H40" s="209">
+      <c r="G40" s="168"/>
+      <c r="H40" s="166">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="211"/>
-      <c r="J40" s="193">
+      <c r="I40" s="168"/>
+      <c r="J40" s="150">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="195"/>
-      <c r="L40" s="233" t="e">
+      <c r="K40" s="152"/>
+      <c r="L40" s="247" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="246"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="260"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8407,63 +8410,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="272">
+      <c r="D41" s="289">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="273"/>
-      <c r="F41" s="216">
+      <c r="E41" s="290"/>
+      <c r="F41" s="173">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="218"/>
-      <c r="H41" s="216">
+      <c r="G41" s="175"/>
+      <c r="H41" s="173">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="218"/>
-      <c r="J41" s="196">
+      <c r="I41" s="175"/>
+      <c r="J41" s="153">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="198"/>
-      <c r="L41" s="223" t="e">
+      <c r="K41" s="155"/>
+      <c r="L41" s="263" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="226"/>
+      <c r="M41" s="264"/>
+      <c r="N41" s="264"/>
+      <c r="O41" s="266"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="267"/>
-      <c r="C42" s="267"/>
-      <c r="D42" s="130" t="s">
+      <c r="B42" s="270"/>
+      <c r="C42" s="270"/>
+      <c r="D42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="130"/>
+      <c r="E42" s="214"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="131" t="s">
+      <c r="J42" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="268"/>
-      <c r="C43" s="268"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="271"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8472,39 +8475,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="L43" s="218"/>
+      <c r="M43" s="218"/>
+      <c r="N43" s="218"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="118" t="str">
+      <c r="G44" s="219" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8515,15 +8518,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="N45" s="119"/>
+      <c r="N45" s="220"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="118"/>
-      <c r="B46" s="118"/>
+      <c r="A46" s="219"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8534,13 +8537,161 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
+      <c r="M46" s="220"/>
+      <c r="N46" s="220"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8565,154 +8716,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="notBetween">
@@ -8766,61 +8769,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="189" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -8830,90 +8833,90 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="255">
+      <c r="B4" s="229">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="259">
+      <c r="F4" s="232"/>
+      <c r="G4" s="233">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="259"/>
+      <c r="H4" s="233"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="259">
+      <c r="J4" s="233">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260" t="s">
+      <c r="K4" s="233"/>
+      <c r="L4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="235">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="255">
+      <c r="N4" s="229">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="262"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="221">
+      <c r="B5" s="261">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="247" t="s">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="221">
+      <c r="F5" s="221"/>
+      <c r="G5" s="261">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="261"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="221">
+      <c r="J5" s="261">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="170" t="s">
+      <c r="K5" s="261"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="263">
+      <c r="M5" s="237">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="162">
+      <c r="N5" s="198">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="222"/>
+      <c r="O5" s="262"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="314"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="183"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -8926,38 +8929,38 @@
       <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="317"/>
-      <c r="C7" s="318"/>
-      <c r="D7" s="319" t="s">
+      <c r="A7" s="302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="303"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="305" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="320"/>
+      <c r="E7" s="306"/>
       <c r="F7" s="280"/>
       <c r="G7" s="280"/>
       <c r="H7" s="280"/>
       <c r="I7" s="280"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
-      <c r="M7" s="309"/>
-      <c r="N7" s="309"/>
-      <c r="O7" s="311"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
+      <c r="O7" s="295"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="230"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="322"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -8976,16 +8979,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="312">
-        <v>0</v>
-      </c>
-      <c r="E9" s="313"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="304"/>
+      <c r="D9" s="296">
+        <v>0</v>
+      </c>
+      <c r="E9" s="297"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="299"/>
+      <c r="K9" s="299"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
@@ -9004,16 +9007,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="307">
-        <v>0</v>
-      </c>
-      <c r="E10" s="308"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="304"/>
-      <c r="K10" s="304"/>
+      <c r="D10" s="309">
+        <v>0</v>
+      </c>
+      <c r="E10" s="310"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
@@ -9032,16 +9035,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="307">
-        <v>0</v>
-      </c>
-      <c r="E11" s="308"/>
-      <c r="F11" s="303"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
-      <c r="I11" s="303"/>
-      <c r="J11" s="304"/>
-      <c r="K11" s="304"/>
+      <c r="D11" s="309">
+        <v>0</v>
+      </c>
+      <c r="E11" s="310"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
@@ -9060,16 +9063,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="307">
-        <v>0</v>
-      </c>
-      <c r="E12" s="308"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="304"/>
-      <c r="K12" s="304"/>
+      <c r="D12" s="309">
+        <v>0</v>
+      </c>
+      <c r="E12" s="310"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
@@ -9088,16 +9091,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="307">
-        <v>0</v>
-      </c>
-      <c r="E13" s="308"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
+      <c r="D13" s="309">
+        <v>0</v>
+      </c>
+      <c r="E13" s="310"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="299"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -9116,16 +9119,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="307">
-        <v>0</v>
-      </c>
-      <c r="E14" s="308"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="303"/>
-      <c r="H14" s="303"/>
-      <c r="I14" s="303"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="304"/>
+      <c r="D14" s="309">
+        <v>0</v>
+      </c>
+      <c r="E14" s="310"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="298"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -9144,16 +9147,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="307">
-        <v>0</v>
-      </c>
-      <c r="E15" s="308"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="303"/>
-      <c r="I15" s="303"/>
-      <c r="J15" s="304"/>
-      <c r="K15" s="304"/>
+      <c r="D15" s="309">
+        <v>0</v>
+      </c>
+      <c r="E15" s="310"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="298"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -9172,16 +9175,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="307">
-        <v>0</v>
-      </c>
-      <c r="E16" s="308"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
-      <c r="J16" s="304"/>
-      <c r="K16" s="304"/>
+      <c r="D16" s="309">
+        <v>0</v>
+      </c>
+      <c r="E16" s="310"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -9200,16 +9203,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="307">
-        <v>0</v>
-      </c>
-      <c r="E17" s="308"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
+      <c r="D17" s="309">
+        <v>0</v>
+      </c>
+      <c r="E17" s="310"/>
+      <c r="F17" s="298"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="298"/>
+      <c r="I17" s="298"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9228,16 +9231,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="307">
-        <v>0</v>
-      </c>
-      <c r="E18" s="308"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="303"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="304"/>
+      <c r="D18" s="309">
+        <v>0</v>
+      </c>
+      <c r="E18" s="310"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="298"/>
+      <c r="I18" s="298"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -9256,16 +9259,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="307">
-        <v>0</v>
-      </c>
-      <c r="E19" s="308"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="304"/>
+      <c r="D19" s="309">
+        <v>0</v>
+      </c>
+      <c r="E19" s="310"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="298"/>
+      <c r="I19" s="298"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
@@ -9284,16 +9287,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="307">
-        <v>0</v>
-      </c>
-      <c r="E20" s="308"/>
-      <c r="F20" s="303"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="303"/>
-      <c r="J20" s="304"/>
-      <c r="K20" s="304"/>
+      <c r="D20" s="309">
+        <v>0</v>
+      </c>
+      <c r="E20" s="310"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="298"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -9312,16 +9315,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="307">
-        <v>0</v>
-      </c>
-      <c r="E21" s="308"/>
-      <c r="F21" s="303"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="303"/>
-      <c r="I21" s="303"/>
-      <c r="J21" s="304"/>
-      <c r="K21" s="304"/>
+      <c r="D21" s="309">
+        <v>0</v>
+      </c>
+      <c r="E21" s="310"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="298"/>
+      <c r="I21" s="298"/>
+      <c r="J21" s="299"/>
+      <c r="K21" s="299"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
@@ -9340,16 +9343,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="307">
-        <v>0</v>
-      </c>
-      <c r="E22" s="308"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="304"/>
+      <c r="D22" s="309">
+        <v>0</v>
+      </c>
+      <c r="E22" s="310"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="298"/>
+      <c r="I22" s="298"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
@@ -9368,16 +9371,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="307">
-        <v>0</v>
-      </c>
-      <c r="E23" s="308"/>
-      <c r="F23" s="303"/>
-      <c r="G23" s="303"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="303"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="304"/>
+      <c r="D23" s="309">
+        <v>0</v>
+      </c>
+      <c r="E23" s="310"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="298"/>
+      <c r="I23" s="298"/>
+      <c r="J23" s="299"/>
+      <c r="K23" s="299"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -9396,16 +9399,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="307">
-        <v>0</v>
-      </c>
-      <c r="E24" s="308"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="303"/>
-      <c r="I24" s="303"/>
-      <c r="J24" s="304"/>
-      <c r="K24" s="304"/>
+      <c r="D24" s="309">
+        <v>0</v>
+      </c>
+      <c r="E24" s="310"/>
+      <c r="F24" s="298"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="298"/>
+      <c r="I24" s="298"/>
+      <c r="J24" s="299"/>
+      <c r="K24" s="299"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
@@ -9424,16 +9427,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="307">
-        <v>0</v>
-      </c>
-      <c r="E25" s="308"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="303"/>
-      <c r="I25" s="303"/>
-      <c r="J25" s="304"/>
-      <c r="K25" s="304"/>
+      <c r="D25" s="309">
+        <v>0</v>
+      </c>
+      <c r="E25" s="310"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
+      <c r="H25" s="298"/>
+      <c r="I25" s="298"/>
+      <c r="J25" s="299"/>
+      <c r="K25" s="299"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
@@ -9452,16 +9455,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="307">
-        <v>0</v>
-      </c>
-      <c r="E26" s="308"/>
-      <c r="F26" s="303"/>
-      <c r="G26" s="303"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="303"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="304"/>
+      <c r="D26" s="309">
+        <v>0</v>
+      </c>
+      <c r="E26" s="310"/>
+      <c r="F26" s="298"/>
+      <c r="G26" s="298"/>
+      <c r="H26" s="298"/>
+      <c r="I26" s="298"/>
+      <c r="J26" s="299"/>
+      <c r="K26" s="299"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -9480,16 +9483,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="307">
-        <v>0</v>
-      </c>
-      <c r="E27" s="308"/>
-      <c r="F27" s="303"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="303"/>
-      <c r="I27" s="303"/>
-      <c r="J27" s="304"/>
-      <c r="K27" s="304"/>
+      <c r="D27" s="309">
+        <v>0</v>
+      </c>
+      <c r="E27" s="310"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="298"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -9508,16 +9511,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="307">
-        <v>0</v>
-      </c>
-      <c r="E28" s="308"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="303"/>
-      <c r="J28" s="304"/>
-      <c r="K28" s="304"/>
+      <c r="D28" s="309">
+        <v>0</v>
+      </c>
+      <c r="E28" s="310"/>
+      <c r="F28" s="298"/>
+      <c r="G28" s="298"/>
+      <c r="H28" s="298"/>
+      <c r="I28" s="298"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -9536,16 +9539,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="307">
-        <v>0</v>
-      </c>
-      <c r="E29" s="308"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="303"/>
-      <c r="J29" s="304"/>
-      <c r="K29" s="304"/>
+      <c r="D29" s="309">
+        <v>0</v>
+      </c>
+      <c r="E29" s="310"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="298"/>
+      <c r="J29" s="299"/>
+      <c r="K29" s="299"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9564,16 +9567,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="307">
-        <v>0</v>
-      </c>
-      <c r="E30" s="308"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
-      <c r="H30" s="303"/>
-      <c r="I30" s="303"/>
-      <c r="J30" s="304"/>
-      <c r="K30" s="304"/>
+      <c r="D30" s="309">
+        <v>0</v>
+      </c>
+      <c r="E30" s="310"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="298"/>
+      <c r="J30" s="299"/>
+      <c r="K30" s="299"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
@@ -9592,16 +9595,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="307">
-        <v>0</v>
-      </c>
-      <c r="E31" s="308"/>
-      <c r="F31" s="303"/>
-      <c r="G31" s="303"/>
-      <c r="H31" s="303"/>
-      <c r="I31" s="303"/>
-      <c r="J31" s="304"/>
-      <c r="K31" s="304"/>
+      <c r="D31" s="309">
+        <v>0</v>
+      </c>
+      <c r="E31" s="310"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
+      <c r="J31" s="299"/>
+      <c r="K31" s="299"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -9620,16 +9623,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="307">
-        <v>0</v>
-      </c>
-      <c r="E32" s="308"/>
-      <c r="F32" s="303"/>
-      <c r="G32" s="303"/>
-      <c r="H32" s="303"/>
-      <c r="I32" s="303"/>
-      <c r="J32" s="304"/>
-      <c r="K32" s="304"/>
+      <c r="D32" s="309">
+        <v>0</v>
+      </c>
+      <c r="E32" s="310"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="298"/>
+      <c r="I32" s="298"/>
+      <c r="J32" s="299"/>
+      <c r="K32" s="299"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -9648,16 +9651,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="307">
-        <v>0</v>
-      </c>
-      <c r="E33" s="308"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="303"/>
-      <c r="H33" s="303"/>
-      <c r="I33" s="303"/>
-      <c r="J33" s="304"/>
-      <c r="K33" s="304"/>
+      <c r="D33" s="309">
+        <v>0</v>
+      </c>
+      <c r="E33" s="310"/>
+      <c r="F33" s="298"/>
+      <c r="G33" s="298"/>
+      <c r="H33" s="298"/>
+      <c r="I33" s="298"/>
+      <c r="J33" s="299"/>
+      <c r="K33" s="299"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -9676,16 +9679,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="307">
-        <v>0</v>
-      </c>
-      <c r="E34" s="308"/>
-      <c r="F34" s="303"/>
-      <c r="G34" s="303"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="303"/>
-      <c r="J34" s="304"/>
-      <c r="K34" s="304"/>
+      <c r="D34" s="309">
+        <v>0</v>
+      </c>
+      <c r="E34" s="310"/>
+      <c r="F34" s="298"/>
+      <c r="G34" s="298"/>
+      <c r="H34" s="298"/>
+      <c r="I34" s="298"/>
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -9704,16 +9707,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="307">
-        <v>0</v>
-      </c>
-      <c r="E35" s="308"/>
-      <c r="F35" s="303"/>
-      <c r="G35" s="303"/>
-      <c r="H35" s="303"/>
-      <c r="I35" s="303"/>
-      <c r="J35" s="304"/>
-      <c r="K35" s="304"/>
+      <c r="D35" s="309">
+        <v>0</v>
+      </c>
+      <c r="E35" s="310"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="298"/>
+      <c r="H35" s="298"/>
+      <c r="I35" s="298"/>
+      <c r="J35" s="299"/>
+      <c r="K35" s="299"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -9732,16 +9735,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="307">
-        <v>0</v>
-      </c>
-      <c r="E36" s="308"/>
-      <c r="F36" s="303"/>
-      <c r="G36" s="303"/>
-      <c r="H36" s="303"/>
-      <c r="I36" s="303"/>
-      <c r="J36" s="304"/>
-      <c r="K36" s="304"/>
+      <c r="D36" s="309">
+        <v>0</v>
+      </c>
+      <c r="E36" s="310"/>
+      <c r="F36" s="298"/>
+      <c r="G36" s="298"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="298"/>
+      <c r="J36" s="299"/>
+      <c r="K36" s="299"/>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
       <c r="N36" s="62"/>
@@ -9760,16 +9763,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="307">
-        <v>0</v>
-      </c>
-      <c r="E37" s="308"/>
-      <c r="F37" s="303"/>
-      <c r="G37" s="303"/>
-      <c r="H37" s="303"/>
-      <c r="I37" s="303"/>
-      <c r="J37" s="304"/>
-      <c r="K37" s="304"/>
+      <c r="D37" s="309">
+        <v>0</v>
+      </c>
+      <c r="E37" s="310"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="298"/>
+      <c r="H37" s="298"/>
+      <c r="I37" s="298"/>
+      <c r="J37" s="299"/>
+      <c r="K37" s="299"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
@@ -9788,16 +9791,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="301">
-        <v>0</v>
-      </c>
-      <c r="E38" s="302"/>
-      <c r="F38" s="303"/>
-      <c r="G38" s="303"/>
-      <c r="H38" s="303"/>
-      <c r="I38" s="303"/>
-      <c r="J38" s="304"/>
-      <c r="K38" s="304"/>
+      <c r="D38" s="319">
+        <v>0</v>
+      </c>
+      <c r="E38" s="320"/>
+      <c r="F38" s="298"/>
+      <c r="G38" s="298"/>
+      <c r="H38" s="298"/>
+      <c r="I38" s="298"/>
+      <c r="J38" s="299"/>
+      <c r="K38" s="299"/>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -9809,17 +9812,17 @@
       <c r="C39" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="305">
+      <c r="D39" s="321">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="306"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="300"/>
-      <c r="K39" s="300"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="318"/>
+      <c r="K39" s="318"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
@@ -9831,17 +9834,17 @@
       <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="297">
+      <c r="D40" s="315">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="298"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="300"/>
-      <c r="K40" s="300"/>
+      <c r="E40" s="316"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="318"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
@@ -9853,17 +9856,17 @@
       <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="293">
+      <c r="D41" s="311">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="294"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="295"/>
-      <c r="J41" s="296"/>
-      <c r="K41" s="296"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
+      <c r="H41" s="313"/>
+      <c r="I41" s="313"/>
+      <c r="J41" s="314"/>
+      <c r="K41" s="314"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -9873,31 +9876,31 @@
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="130" t="s">
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="130"/>
+      <c r="E42" s="214"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="131" t="s">
+      <c r="J42" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -9906,39 +9909,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="L43" s="218"/>
+      <c r="M43" s="218"/>
+      <c r="N43" s="218"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="118" t="str">
+      <c r="G44" s="219" t="str">
         <f>Page1!G43</f>
         <v>MRMP : 00003055.002  GCAS:91899840.00</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -9949,35 +9952,143 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="119" t="s">
+      <c r="M45" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="119"/>
+      <c r="N45" s="220"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="166">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -9996,134 +10107,26 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:J44"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F38 F39:G41">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="notBetween">
@@ -11949,7 +11952,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13360,11 +13363,11 @@
         <f>MIN((AO9-H9)/(3*AP9), (I9-AO9)/(3*AP9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="95">
+      <c r="AR9" s="323">
         <f>MIN(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="95">
+      <c r="AS9" s="323">
         <f>MAX(K9:AN9)</f>
         <v>0</v>
       </c>

--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7862D68-6FED-45C5-87B7-856A0E0C451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF768ECF-B30A-4B9E-AF89-46C254518BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Page3" sheetId="5" r:id="rId3"/>
     <sheet name="Page4" sheetId="6" r:id="rId4"/>
     <sheet name="Page5" sheetId="7" r:id="rId5"/>
-    <sheet name="91899840.004_00_COA" sheetId="9" r:id="rId6"/>
+    <sheet name="91899840.004_002_COA" sheetId="9" r:id="rId6"/>
     <sheet name="Cpk " sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -561,7 +561,7 @@
     <t>Force~Tensile Strength@Break (N) CD (L-6.5 T-9.5)</t>
   </si>
   <si>
-    <t>MRMP : 00003055.002  GCAS:91899840.00</t>
+    <t>MRMP : 00003055.002  GCAS:91899840.002</t>
   </si>
 </sst>
 </file>
@@ -1835,6 +1835,121 @@
     <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1847,88 +1962,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1939,185 +1983,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2130,57 +2036,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2254,101 +2337,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2365,60 +2423,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2440,93 +2497,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3033,7 +3033,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3044,61 +3044,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3108,607 +3108,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144" t="s">
+      <c r="I4" s="169"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="197"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="204" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="205"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="196" t="s">
+      <c r="I5" s="172"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="200"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="201"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="166"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="190"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="183"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="182" t="s">
+      <c r="A7" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="182" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="186" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="182" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="191"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="184"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="119"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="133"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="141"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="150"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="133"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="141"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="150"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="150"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="150"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="133"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="141"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="150"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="133"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="150"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="119"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="150"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="133"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="141"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="150"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="150"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="133"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="141"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="150"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="150"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="150"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="133"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="150"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="150"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="133"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="141"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="119"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="150"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="119"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="133"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="141"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="150"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="212"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="129"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3716,30 +3716,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="147" t="e">
+      <c r="D38" s="191" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="156" t="e">
+      <c r="E38" s="192"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="200" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="157"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159" t="e">
+      <c r="H38" s="201"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="160"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="147" t="e">
+      <c r="K38" s="204"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="191" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="148"/>
-      <c r="O38" s="162"/>
+      <c r="N38" s="192"/>
+      <c r="O38" s="206"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3747,30 +3747,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="150">
+      <c r="D39" s="194">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="163">
+      <c r="E39" s="195"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="207">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="166">
+      <c r="H39" s="208"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="210">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="150">
+      <c r="K39" s="211"/>
+      <c r="L39" s="212"/>
+      <c r="M39" s="194">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="151"/>
-      <c r="O39" s="169"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="213"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3778,60 +3778,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="153">
+      <c r="D40" s="197">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="154"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="170">
+      <c r="E40" s="198"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="214">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173">
+      <c r="H40" s="215"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="174"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="153">
+      <c r="K40" s="218"/>
+      <c r="L40" s="219"/>
+      <c r="M40" s="197">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="154"/>
-      <c r="O40" s="176"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="220"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="214" t="s">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="214"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="215" t="s">
+      <c r="J41" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="215"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="216"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3840,38 +3840,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="219" t="s">
+      <c r="G43" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="219"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3882,10 +3882,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="220" t="s">
+      <c r="M44" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="220"/>
+      <c r="N44" s="120"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3901,72 +3901,184 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="118"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
-      <c r="N75" s="146"/>
-      <c r="O75" s="146"/>
+      <c r="L75" s="118"/>
+      <c r="M75" s="118"/>
+      <c r="N75" s="118"/>
+      <c r="O75" s="118"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
-      <c r="N76" s="146"/>
-      <c r="O76" s="146"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="118"/>
+      <c r="N76" s="118"/>
+      <c r="O76" s="118"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
-      <c r="N77" s="146"/>
-      <c r="O77" s="146"/>
+      <c r="L77" s="118"/>
+      <c r="M77" s="118"/>
+      <c r="N77" s="118"/>
+      <c r="O77" s="118"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G26:I26"/>
@@ -3991,140 +4103,28 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -4164,7 +4164,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4175,61 +4175,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -4239,130 +4239,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="256">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="259"/>
+      <c r="G4" s="260">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="260">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="260"/>
+      <c r="L4" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="262">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="256">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="222">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="248"/>
+      <c r="G5" s="222">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="222"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="222">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="222"/>
+      <c r="L5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="264">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="163">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="223" t="s">
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="226"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="253"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="267"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5456,27 +5456,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="240" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="241"/>
+      <c r="F39" s="241"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="243" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="244"/>
+      <c r="J39" s="244"/>
+      <c r="K39" s="245"/>
+      <c r="L39" s="243" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="246"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5484,27 +5484,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="237" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="238"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="234" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="234" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="235"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="247"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5512,57 +5512,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="228" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="224" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="224" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="227"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5571,39 +5571,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="119" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.00</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5614,10 +5614,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="120"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5638,6 +5638,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="L43:N43"/>
@@ -5654,31 +5679,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
@@ -5720,61 +5720,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5784,130 +5784,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="256">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="259"/>
+      <c r="G4" s="260">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="260">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="260"/>
+      <c r="L4" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="262">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="256">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="222">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="248"/>
+      <c r="G5" s="222">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="222"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="222">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="222"/>
+      <c r="L5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="264">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="163">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="267" t="s">
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="270" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
-      <c r="O7" s="269"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="272"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="267"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -7004,27 +7004,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="240" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="241"/>
+      <c r="F39" s="241"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="243" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="244"/>
+      <c r="J39" s="244"/>
+      <c r="K39" s="245"/>
+      <c r="L39" s="243" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="246"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -7032,27 +7032,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="237" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="238"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="234" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="234" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="235"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="247"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -7060,57 +7060,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="228" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="224" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="224" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="227"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="268"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="269"/>
+      <c r="C43" s="269"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -7119,39 +7119,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="119" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.00</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -7162,25 +7162,31 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="120"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -7196,22 +7202,16 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
@@ -7253,61 +7253,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -7317,142 +7317,142 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="256">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="259"/>
+      <c r="G4" s="260">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="260">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="260"/>
+      <c r="L4" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="262">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="256">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="222">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="248"/>
+      <c r="G5" s="222">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="222"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="222">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="222"/>
+      <c r="L5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="264">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="163">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="277"/>
-      <c r="N6" s="277"/>
-      <c r="O6" s="278"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="277"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="279"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282" t="s">
+      <c r="A7" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="281"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="283" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282" t="s">
+      <c r="E7" s="282"/>
+      <c r="F7" s="283" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="281"/>
-      <c r="H7" s="282" t="s">
+      <c r="G7" s="282"/>
+      <c r="H7" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="283" t="s">
+      <c r="I7" s="282"/>
+      <c r="J7" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="284"/>
-      <c r="L7" s="229" t="s">
+      <c r="K7" s="285"/>
+      <c r="L7" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="236"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="263"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="286"/>
+      <c r="A8" s="267"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="287"/>
       <c r="L8" s="49">
         <v>1</v>
       </c>
@@ -7479,14 +7479,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7508,14 +7508,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="126"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="167"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7537,14 +7537,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="126"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="167"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7566,14 +7566,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="126"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="167"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7595,14 +7595,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="126"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="167"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7624,14 +7624,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="126"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7653,14 +7653,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="126"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="167"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7682,14 +7682,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="126"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="167"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7711,14 +7711,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="126"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="167"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7740,14 +7740,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="126"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="167"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7769,14 +7769,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="126"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="167"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7798,14 +7798,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="126"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="167"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7827,14 +7827,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="126"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="167"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7856,14 +7856,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="126"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="167"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7885,14 +7885,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="126"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="167"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7914,14 +7914,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="126"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="167"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7943,14 +7943,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="126"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="167"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7972,14 +7972,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="126"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="167"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -8001,14 +8001,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="126"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="167"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -8030,14 +8030,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="126"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="167"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -8059,14 +8059,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="126"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="167"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -8088,14 +8088,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="126"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="167"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -8117,14 +8117,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="126"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="167"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -8146,14 +8146,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="126"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="167"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -8175,14 +8175,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="126"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="167"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -8204,14 +8204,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="126"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="167"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -8233,14 +8233,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="126"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="167"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -8262,14 +8262,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="126"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="167"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -8291,14 +8291,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="126"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="167"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -8320,14 +8320,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="179"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="221"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8342,33 +8342,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="159" t="e">
+      <c r="D39" s="203" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="159" t="e">
+      <c r="E39" s="205"/>
+      <c r="F39" s="203" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="161"/>
-      <c r="H39" s="159" t="e">
+      <c r="G39" s="205"/>
+      <c r="H39" s="203" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="161"/>
-      <c r="J39" s="147" t="e">
+      <c r="I39" s="205"/>
+      <c r="J39" s="191" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="149"/>
-      <c r="L39" s="256" t="e">
+      <c r="K39" s="193"/>
+      <c r="L39" s="243" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="246"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8376,33 +8376,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="291">
+      <c r="D40" s="275">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="292"/>
-      <c r="F40" s="166">
+      <c r="E40" s="276"/>
+      <c r="F40" s="210">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="168"/>
-      <c r="H40" s="166">
+      <c r="G40" s="212"/>
+      <c r="H40" s="210">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="168"/>
-      <c r="J40" s="150">
+      <c r="I40" s="212"/>
+      <c r="J40" s="194">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="152"/>
-      <c r="L40" s="247" t="e">
+      <c r="K40" s="196"/>
+      <c r="L40" s="234" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="235"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="247"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8410,63 +8410,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="273">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="290"/>
-      <c r="F41" s="173">
+      <c r="E41" s="274"/>
+      <c r="F41" s="217">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="175"/>
-      <c r="H41" s="173">
+      <c r="G41" s="219"/>
+      <c r="H41" s="217">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="175"/>
-      <c r="J41" s="153">
+      <c r="I41" s="219"/>
+      <c r="J41" s="197">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="263" t="e">
+      <c r="K41" s="199"/>
+      <c r="L41" s="224" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="227"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="268"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="269"/>
+      <c r="C43" s="269"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8475,39 +8475,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="119" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.00</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8518,15 +8518,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="120"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="219"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8537,161 +8537,13 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="220"/>
-      <c r="N46" s="220"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8716,6 +8568,154 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="notBetween">
@@ -8769,61 +8769,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -8833,90 +8833,90 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="256">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="259"/>
+      <c r="G4" s="260">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="260">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="260"/>
+      <c r="L4" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="262">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="256">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="222">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="248"/>
+      <c r="G5" s="222">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="222"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="222">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="222"/>
+      <c r="L5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="264">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="163">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="223"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="191"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -8929,38 +8929,38 @@
       <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="303"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="305" t="s">
+      <c r="A7" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="318"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="320" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="295"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="310"/>
+      <c r="M7" s="310"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="312"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
+      <c r="A8" s="231"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="322"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="311"/>
+      <c r="K8" s="311"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -8979,16 +8979,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="296">
-        <v>0</v>
-      </c>
-      <c r="E9" s="297"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="D9" s="313">
+        <v>0</v>
+      </c>
+      <c r="E9" s="314"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="304"/>
+      <c r="H9" s="304"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="305"/>
+      <c r="K9" s="305"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
@@ -9007,16 +9007,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="309">
-        <v>0</v>
-      </c>
-      <c r="E10" s="310"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
+      <c r="D10" s="308">
+        <v>0</v>
+      </c>
+      <c r="E10" s="309"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
@@ -9035,16 +9035,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="309">
-        <v>0</v>
-      </c>
-      <c r="E11" s="310"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
+      <c r="D11" s="308">
+        <v>0</v>
+      </c>
+      <c r="E11" s="309"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="304"/>
+      <c r="H11" s="304"/>
+      <c r="I11" s="304"/>
+      <c r="J11" s="305"/>
+      <c r="K11" s="305"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
@@ -9063,16 +9063,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="309">
-        <v>0</v>
-      </c>
-      <c r="E12" s="310"/>
-      <c r="F12" s="298"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
+      <c r="D12" s="308">
+        <v>0</v>
+      </c>
+      <c r="E12" s="309"/>
+      <c r="F12" s="304"/>
+      <c r="G12" s="304"/>
+      <c r="H12" s="304"/>
+      <c r="I12" s="304"/>
+      <c r="J12" s="305"/>
+      <c r="K12" s="305"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
@@ -9091,16 +9091,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="309">
-        <v>0</v>
-      </c>
-      <c r="E13" s="310"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="298"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
+      <c r="D13" s="308">
+        <v>0</v>
+      </c>
+      <c r="E13" s="309"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="305"/>
+      <c r="K13" s="305"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -9119,16 +9119,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="309">
-        <v>0</v>
-      </c>
-      <c r="E14" s="310"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="298"/>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
+      <c r="D14" s="308">
+        <v>0</v>
+      </c>
+      <c r="E14" s="309"/>
+      <c r="F14" s="304"/>
+      <c r="G14" s="304"/>
+      <c r="H14" s="304"/>
+      <c r="I14" s="304"/>
+      <c r="J14" s="305"/>
+      <c r="K14" s="305"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -9147,16 +9147,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="309">
-        <v>0</v>
-      </c>
-      <c r="E15" s="310"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
+      <c r="D15" s="308">
+        <v>0</v>
+      </c>
+      <c r="E15" s="309"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="304"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="304"/>
+      <c r="J15" s="305"/>
+      <c r="K15" s="305"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -9175,16 +9175,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="309">
-        <v>0</v>
-      </c>
-      <c r="E16" s="310"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="298"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
+      <c r="D16" s="308">
+        <v>0</v>
+      </c>
+      <c r="E16" s="309"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="304"/>
+      <c r="I16" s="304"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -9203,16 +9203,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="309">
-        <v>0</v>
-      </c>
-      <c r="E17" s="310"/>
-      <c r="F17" s="298"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="298"/>
-      <c r="I17" s="298"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
+      <c r="D17" s="308">
+        <v>0</v>
+      </c>
+      <c r="E17" s="309"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="304"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="305"/>
+      <c r="K17" s="305"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9231,16 +9231,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="309">
-        <v>0</v>
-      </c>
-      <c r="E18" s="310"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="298"/>
-      <c r="I18" s="298"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
+      <c r="D18" s="308">
+        <v>0</v>
+      </c>
+      <c r="E18" s="309"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="305"/>
+      <c r="K18" s="305"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -9259,16 +9259,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="309">
-        <v>0</v>
-      </c>
-      <c r="E19" s="310"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="298"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
+      <c r="D19" s="308">
+        <v>0</v>
+      </c>
+      <c r="E19" s="309"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="305"/>
+      <c r="K19" s="305"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
@@ -9287,16 +9287,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="309">
-        <v>0</v>
-      </c>
-      <c r="E20" s="310"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="298"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
+      <c r="D20" s="308">
+        <v>0</v>
+      </c>
+      <c r="E20" s="309"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="304"/>
+      <c r="I20" s="304"/>
+      <c r="J20" s="305"/>
+      <c r="K20" s="305"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -9315,16 +9315,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="309">
-        <v>0</v>
-      </c>
-      <c r="E21" s="310"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="298"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
+      <c r="D21" s="308">
+        <v>0</v>
+      </c>
+      <c r="E21" s="309"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="305"/>
+      <c r="K21" s="305"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
@@ -9343,16 +9343,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="309">
-        <v>0</v>
-      </c>
-      <c r="E22" s="310"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="298"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
+      <c r="D22" s="308">
+        <v>0</v>
+      </c>
+      <c r="E22" s="309"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="305"/>
+      <c r="K22" s="305"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
@@ -9371,16 +9371,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="309">
-        <v>0</v>
-      </c>
-      <c r="E23" s="310"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="298"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="299"/>
+      <c r="D23" s="308">
+        <v>0</v>
+      </c>
+      <c r="E23" s="309"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="305"/>
+      <c r="K23" s="305"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -9399,16 +9399,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="309">
-        <v>0</v>
-      </c>
-      <c r="E24" s="310"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="298"/>
-      <c r="I24" s="298"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
+      <c r="D24" s="308">
+        <v>0</v>
+      </c>
+      <c r="E24" s="309"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="305"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
@@ -9427,16 +9427,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="309">
-        <v>0</v>
-      </c>
-      <c r="E25" s="310"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="298"/>
-      <c r="I25" s="298"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="299"/>
+      <c r="D25" s="308">
+        <v>0</v>
+      </c>
+      <c r="E25" s="309"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="304"/>
+      <c r="I25" s="304"/>
+      <c r="J25" s="305"/>
+      <c r="K25" s="305"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
@@ -9455,16 +9455,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="309">
-        <v>0</v>
-      </c>
-      <c r="E26" s="310"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="298"/>
-      <c r="I26" s="298"/>
-      <c r="J26" s="299"/>
-      <c r="K26" s="299"/>
+      <c r="D26" s="308">
+        <v>0</v>
+      </c>
+      <c r="E26" s="309"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="305"/>
+      <c r="K26" s="305"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -9483,16 +9483,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="309">
-        <v>0</v>
-      </c>
-      <c r="E27" s="310"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="298"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
+      <c r="D27" s="308">
+        <v>0</v>
+      </c>
+      <c r="E27" s="309"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="304"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="305"/>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -9511,16 +9511,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="309">
-        <v>0</v>
-      </c>
-      <c r="E28" s="310"/>
-      <c r="F28" s="298"/>
-      <c r="G28" s="298"/>
-      <c r="H28" s="298"/>
-      <c r="I28" s="298"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
+      <c r="D28" s="308">
+        <v>0</v>
+      </c>
+      <c r="E28" s="309"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="305"/>
+      <c r="K28" s="305"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -9539,16 +9539,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="309">
-        <v>0</v>
-      </c>
-      <c r="E29" s="310"/>
-      <c r="F29" s="298"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="298"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="299"/>
+      <c r="D29" s="308">
+        <v>0</v>
+      </c>
+      <c r="E29" s="309"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="305"/>
+      <c r="K29" s="305"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9567,16 +9567,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="309">
-        <v>0</v>
-      </c>
-      <c r="E30" s="310"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
-      <c r="J30" s="299"/>
-      <c r="K30" s="299"/>
+      <c r="D30" s="308">
+        <v>0</v>
+      </c>
+      <c r="E30" s="309"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="305"/>
+      <c r="K30" s="305"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
@@ -9595,16 +9595,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="309">
-        <v>0</v>
-      </c>
-      <c r="E31" s="310"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="299"/>
+      <c r="D31" s="308">
+        <v>0</v>
+      </c>
+      <c r="E31" s="309"/>
+      <c r="F31" s="304"/>
+      <c r="G31" s="304"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="305"/>
+      <c r="K31" s="305"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -9623,16 +9623,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="309">
-        <v>0</v>
-      </c>
-      <c r="E32" s="310"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
-      <c r="J32" s="299"/>
-      <c r="K32" s="299"/>
+      <c r="D32" s="308">
+        <v>0</v>
+      </c>
+      <c r="E32" s="309"/>
+      <c r="F32" s="304"/>
+      <c r="G32" s="304"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="304"/>
+      <c r="J32" s="305"/>
+      <c r="K32" s="305"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -9651,16 +9651,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="309">
-        <v>0</v>
-      </c>
-      <c r="E33" s="310"/>
-      <c r="F33" s="298"/>
-      <c r="G33" s="298"/>
-      <c r="H33" s="298"/>
-      <c r="I33" s="298"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
+      <c r="D33" s="308">
+        <v>0</v>
+      </c>
+      <c r="E33" s="309"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="305"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -9679,16 +9679,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="309">
-        <v>0</v>
-      </c>
-      <c r="E34" s="310"/>
-      <c r="F34" s="298"/>
-      <c r="G34" s="298"/>
-      <c r="H34" s="298"/>
-      <c r="I34" s="298"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
+      <c r="D34" s="308">
+        <v>0</v>
+      </c>
+      <c r="E34" s="309"/>
+      <c r="F34" s="304"/>
+      <c r="G34" s="304"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="304"/>
+      <c r="J34" s="305"/>
+      <c r="K34" s="305"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -9707,16 +9707,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="309">
-        <v>0</v>
-      </c>
-      <c r="E35" s="310"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="298"/>
-      <c r="H35" s="298"/>
-      <c r="I35" s="298"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
+      <c r="D35" s="308">
+        <v>0</v>
+      </c>
+      <c r="E35" s="309"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="304"/>
+      <c r="H35" s="304"/>
+      <c r="I35" s="304"/>
+      <c r="J35" s="305"/>
+      <c r="K35" s="305"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -9735,16 +9735,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="309">
-        <v>0</v>
-      </c>
-      <c r="E36" s="310"/>
-      <c r="F36" s="298"/>
-      <c r="G36" s="298"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="298"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
+      <c r="D36" s="308">
+        <v>0</v>
+      </c>
+      <c r="E36" s="309"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="304"/>
+      <c r="I36" s="304"/>
+      <c r="J36" s="305"/>
+      <c r="K36" s="305"/>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
       <c r="N36" s="62"/>
@@ -9763,16 +9763,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="309">
-        <v>0</v>
-      </c>
-      <c r="E37" s="310"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="298"/>
-      <c r="H37" s="298"/>
-      <c r="I37" s="298"/>
-      <c r="J37" s="299"/>
-      <c r="K37" s="299"/>
+      <c r="D37" s="308">
+        <v>0</v>
+      </c>
+      <c r="E37" s="309"/>
+      <c r="F37" s="304"/>
+      <c r="G37" s="304"/>
+      <c r="H37" s="304"/>
+      <c r="I37" s="304"/>
+      <c r="J37" s="305"/>
+      <c r="K37" s="305"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
@@ -9791,16 +9791,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="319">
-        <v>0</v>
-      </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="298"/>
-      <c r="G38" s="298"/>
-      <c r="H38" s="298"/>
-      <c r="I38" s="298"/>
-      <c r="J38" s="299"/>
-      <c r="K38" s="299"/>
+      <c r="D38" s="302">
+        <v>0</v>
+      </c>
+      <c r="E38" s="303"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="304"/>
+      <c r="H38" s="304"/>
+      <c r="I38" s="304"/>
+      <c r="J38" s="305"/>
+      <c r="K38" s="305"/>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -9812,17 +9812,17 @@
       <c r="C39" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="321">
+      <c r="D39" s="306">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="322"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="318"/>
+      <c r="E39" s="307"/>
+      <c r="F39" s="300"/>
+      <c r="G39" s="300"/>
+      <c r="H39" s="300"/>
+      <c r="I39" s="300"/>
+      <c r="J39" s="301"/>
+      <c r="K39" s="301"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
@@ -9834,17 +9834,17 @@
       <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="315">
+      <c r="D40" s="298">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="316"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="300"/>
+      <c r="G40" s="300"/>
+      <c r="H40" s="300"/>
+      <c r="I40" s="300"/>
+      <c r="J40" s="301"/>
+      <c r="K40" s="301"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
@@ -9856,17 +9856,17 @@
       <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="311">
+      <c r="D41" s="294">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="313"/>
-      <c r="I41" s="313"/>
-      <c r="J41" s="314"/>
-      <c r="K41" s="314"/>
+      <c r="E41" s="295"/>
+      <c r="F41" s="296"/>
+      <c r="G41" s="296"/>
+      <c r="H41" s="296"/>
+      <c r="I41" s="296"/>
+      <c r="J41" s="297"/>
+      <c r="K41" s="297"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -9876,31 +9876,31 @@
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -9909,39 +9909,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="119" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.00</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -9952,143 +9952,35 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="220"/>
+      <c r="N45" s="120"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="166">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -10107,26 +9999,134 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F38 F39:G41">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="notBetween">
@@ -13363,11 +13363,11 @@
         <f>MIN((AO9-H9)/(3*AP9), (I9-AO9)/(3*AP9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="323">
+      <c r="AR9" s="117">
         <f>MIN(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="323">
+      <c r="AS9" s="117">
         <f>MAX(K9:AN9)</f>
         <v>0</v>
       </c>

--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EEAB4D-7F17-4DBB-8C8D-F857A19C8D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10114786-6983-475C-8DFA-787C8EA79DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,10 +568,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2524,7 +2525,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -10165,7 +10166,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>

--- a/backend/templates/168-18c-white-jeddah.xlsx
+++ b/backend/templates/168-18c-white-jeddah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10114786-6983-475C-8DFA-787C8EA79DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868450A-2D16-466B-9574-66B2B36E333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,21 +206,6 @@
     <t>Reference:</t>
   </si>
   <si>
-    <t>Page No 1 of 4</t>
-  </si>
-  <si>
-    <t>Page No 2 of 4</t>
-  </si>
-  <si>
-    <t>Page No 3 of 4</t>
-  </si>
-  <si>
-    <t>Page No 4 of 4</t>
-  </si>
-  <si>
-    <t>Page No 5 of 4</t>
-  </si>
-  <si>
     <t>Test Name - (O) - Optional, (RRG#) - Reference Part Report Group #, (MRG#) - Master Part Report Group #:</t>
   </si>
   <si>
@@ -561,7 +546,22 @@
     <t>Force~Tensile Strength@Break (N) CD (L-6.5 T-9.5)</t>
   </si>
   <si>
-    <t>MRMP : 00003055.002  GCAS:91899840.002</t>
+    <t>MRMP : 00003055.002  GCAS:91899840.004</t>
+  </si>
+  <si>
+    <t>Page No 1 of 5</t>
+  </si>
+  <si>
+    <t>Page No 2 of 5</t>
+  </si>
+  <si>
+    <t>Page No 3 of 5</t>
+  </si>
+  <si>
+    <t>Page No 4 of 5</t>
+  </si>
+  <si>
+    <t>Page No 5 of 5</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1461,7 +1461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1835,6 +1835,13 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2524,10 +2531,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3034,7 +3037,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3045,61 +3048,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3109,607 +3112,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="144" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144" t="s">
+      <c r="I4" s="147"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="195"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196" t="s">
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="197"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="204" t="s">
+      <c r="E5" s="199"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="205"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="196" t="s">
+      <c r="I5" s="207"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="200"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="201"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="190"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="192"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="182" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="185"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="186" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="182" t="s">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="191"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="193"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="133"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="135"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="133"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="135"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="121"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="133"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="135"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="121"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="133"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="135"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="133"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="135"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="133"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="135"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="121"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="121"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="133"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="135"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="121"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="133"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="135"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="121"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="133"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="135"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="121"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="212"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="214"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3717,30 +3720,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="147" t="e">
+      <c r="D38" s="149" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="156" t="e">
+      <c r="E38" s="150"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="158" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="157"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159" t="e">
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="160"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="147" t="e">
+      <c r="K38" s="162"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="149" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="148"/>
-      <c r="O38" s="162"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="164"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3748,30 +3751,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="150">
+      <c r="D39" s="152">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="163">
+      <c r="E39" s="153"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="165">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="166">
+      <c r="H39" s="166"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="168">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="150">
+      <c r="K39" s="169"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="152">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="151"/>
-      <c r="O39" s="169"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="171"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3779,60 +3782,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="153">
+      <c r="D40" s="155">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="154"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="170">
+      <c r="E40" s="156"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="172">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173">
+      <c r="H40" s="173"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="174"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="153">
+      <c r="K40" s="176"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="155">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="154"/>
-      <c r="O40" s="176"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="178"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="214" t="s">
+      <c r="B41" s="215"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="214"/>
+      <c r="E41" s="216"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="215" t="s">
+      <c r="J41" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="215"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
-      <c r="N41" s="216"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="218"/>
+      <c r="M41" s="218"/>
+      <c r="N41" s="218"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3841,38 +3844,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="219" t="s">
+      <c r="A43" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="219" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
+      <c r="G43" s="221" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="219"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3883,10 +3886,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="220" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="220"/>
+      <c r="M44" s="222" t="s">
+        <v>155</v>
+      </c>
+      <c r="N44" s="222"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3902,45 +3905,45 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
-      <c r="N75" s="146"/>
-      <c r="O75" s="146"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="148"/>
+      <c r="O75" s="148"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
-      <c r="N76" s="146"/>
-      <c r="O76" s="146"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
-      <c r="N77" s="146"/>
-      <c r="O77" s="146"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="148"/>
+      <c r="O77" s="148"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
@@ -4165,7 +4168,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4176,61 +4179,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -4240,130 +4243,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="231">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="234"/>
+      <c r="G4" s="235">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="235"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="235">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="237">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="231">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="238"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="263">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="223"/>
+      <c r="G5" s="263">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="263"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="263">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="263"/>
+      <c r="L5" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="239">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="200">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="247"/>
+      <c r="J6" s="247"/>
+      <c r="K6" s="247"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="248"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="223" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="226"/>
+      <c r="M7" s="226"/>
+      <c r="N7" s="226"/>
+      <c r="O7" s="228"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="191"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5457,27 +5460,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="255" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="257"/>
+      <c r="H39" s="258" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="259"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="258" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="261"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5485,27 +5488,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="252" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="253"/>
+      <c r="F40" s="253"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="249" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="249" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="250"/>
+      <c r="N40" s="250"/>
+      <c r="O40" s="262"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5513,57 +5516,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="243" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="244"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="265" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="266"/>
+      <c r="J41" s="266"/>
+      <c r="K41" s="267"/>
+      <c r="L41" s="265" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="266"/>
+      <c r="N41" s="266"/>
+      <c r="O41" s="268"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="216"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5572,39 +5575,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="220"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="221" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.004</v>
+      </c>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5615,10 +5618,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" s="220"/>
+      <c r="M45" s="222" t="s">
+        <v>156</v>
+      </c>
+      <c r="N45" s="222"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5710,7 +5713,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5721,61 +5724,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5785,130 +5788,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="231">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="234"/>
+      <c r="G4" s="235">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="235"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="235">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="237">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="231">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="238"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="263">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="223"/>
+      <c r="G5" s="263">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="263"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="263">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="263"/>
+      <c r="L5" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="239">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="200">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="247"/>
+      <c r="J6" s="247"/>
+      <c r="K6" s="247"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="248"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="222" t="s">
+      <c r="A7" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="267" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
-      <c r="O7" s="269"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="271"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="191"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -7005,27 +7008,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="253" t="e">
+      <c r="D39" s="255" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256" t="e">
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="257"/>
+      <c r="H39" s="258" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="256" t="e">
+      <c r="I39" s="259"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="258" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="261"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -7033,27 +7036,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="250" t="e">
+      <c r="D40" s="252" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="247" t="e">
+      <c r="E40" s="253"/>
+      <c r="F40" s="253"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="249" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="247" t="e">
+      <c r="I40" s="250"/>
+      <c r="J40" s="250"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="249" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="250"/>
+      <c r="N40" s="250"/>
+      <c r="O40" s="262"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -7061,57 +7064,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="243" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="263" t="e">
+      <c r="E41" s="244"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="265" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="264"/>
-      <c r="J41" s="264"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="263" t="e">
+      <c r="I41" s="266"/>
+      <c r="J41" s="266"/>
+      <c r="K41" s="267"/>
+      <c r="L41" s="265" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="266"/>
+      <c r="N41" s="266"/>
+      <c r="O41" s="268"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="272"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="216"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="273"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -7120,39 +7123,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="220"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="221" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.004</v>
+      </c>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -7163,10 +7166,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="220"/>
+      <c r="M45" s="222" t="s">
+        <v>157</v>
+      </c>
+      <c r="N45" s="222"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
@@ -7243,7 +7246,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7254,61 +7257,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -7318,142 +7321,142 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="231">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="234"/>
+      <c r="G4" s="235">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="235"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="235">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="237">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="231">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="238"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="263">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="223"/>
+      <c r="G5" s="263">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="263"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="263">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="263"/>
+      <c r="L5" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="239">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="200">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="277"/>
-      <c r="N6" s="277"/>
-      <c r="O6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="290"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="280"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282" t="s">
+      <c r="A7" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="282"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="284" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282" t="s">
+      <c r="E7" s="283"/>
+      <c r="F7" s="284" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="281"/>
-      <c r="H7" s="282" t="s">
+      <c r="G7" s="283"/>
+      <c r="H7" s="284" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="283" t="s">
+      <c r="I7" s="283"/>
+      <c r="J7" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="284"/>
-      <c r="L7" s="229" t="s">
+      <c r="K7" s="286"/>
+      <c r="L7" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="236"/>
+      <c r="M7" s="232"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="238"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="286"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="288"/>
       <c r="L8" s="49">
         <v>1</v>
       </c>
@@ -7480,14 +7483,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="277"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7509,14 +7512,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="126"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="128"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7538,14 +7541,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="126"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="128"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7567,14 +7570,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7596,14 +7599,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="126"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7625,14 +7628,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="126"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="128"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7654,14 +7657,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="126"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="128"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7683,14 +7686,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="126"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7712,14 +7715,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="126"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="128"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7741,14 +7744,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="126"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7770,14 +7773,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="126"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="128"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7799,14 +7802,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="126"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7828,14 +7831,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="126"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7857,14 +7860,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="126"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7886,14 +7889,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="126"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="128"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7915,14 +7918,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="126"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="128"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7944,14 +7947,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="126"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7973,14 +7976,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="126"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="128"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -8002,14 +8005,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="126"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="128"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -8031,14 +8034,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="126"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="128"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -8060,14 +8063,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="126"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="128"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -8089,14 +8092,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="126"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="128"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -8118,14 +8121,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="126"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="128"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -8147,14 +8150,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="126"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="128"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -8176,14 +8179,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="126"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="128"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -8205,14 +8208,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="126"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="128"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -8234,14 +8237,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="126"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="128"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -8263,14 +8266,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="126"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="128"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -8292,14 +8295,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="126"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="128"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -8321,14 +8324,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="179"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="181"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8343,33 +8346,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="159" t="e">
+      <c r="D39" s="161" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="159" t="e">
+      <c r="E39" s="163"/>
+      <c r="F39" s="161" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="161"/>
-      <c r="H39" s="159" t="e">
+      <c r="G39" s="163"/>
+      <c r="H39" s="161" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="161"/>
-      <c r="J39" s="147" t="e">
+      <c r="I39" s="163"/>
+      <c r="J39" s="149" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="149"/>
-      <c r="L39" s="256" t="e">
+      <c r="K39" s="151"/>
+      <c r="L39" s="258" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="259"/>
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="261"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8377,33 +8380,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="291">
+      <c r="D40" s="293">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="292"/>
-      <c r="F40" s="166">
+      <c r="E40" s="294"/>
+      <c r="F40" s="168">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="168"/>
-      <c r="H40" s="166">
+      <c r="G40" s="170"/>
+      <c r="H40" s="168">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="168"/>
-      <c r="J40" s="150">
+      <c r="I40" s="170"/>
+      <c r="J40" s="152">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="152"/>
-      <c r="L40" s="247" t="e">
+      <c r="K40" s="154"/>
+      <c r="L40" s="249" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="260"/>
+      <c r="M40" s="250"/>
+      <c r="N40" s="250"/>
+      <c r="O40" s="262"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8411,63 +8414,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="291">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="290"/>
-      <c r="F41" s="173">
+      <c r="E41" s="292"/>
+      <c r="F41" s="175">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="175"/>
-      <c r="H41" s="173">
+      <c r="G41" s="177"/>
+      <c r="H41" s="175">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="175"/>
-      <c r="J41" s="153">
+      <c r="I41" s="177"/>
+      <c r="J41" s="155">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="263" t="e">
+      <c r="K41" s="157"/>
+      <c r="L41" s="265" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="264"/>
-      <c r="N41" s="264"/>
-      <c r="O41" s="266"/>
+      <c r="M41" s="266"/>
+      <c r="N41" s="266"/>
+      <c r="O41" s="268"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="272"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="216"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="273"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8476,39 +8479,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="220"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="221" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.004</v>
+      </c>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8519,15 +8522,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
-        <v>45</v>
-      </c>
-      <c r="N45" s="220"/>
+      <c r="M45" s="222" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="222"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="219"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="221"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8538,8 +8541,8 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="220"/>
-      <c r="N46" s="220"/>
+      <c r="M46" s="222"/>
+      <c r="N46" s="222"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
@@ -8759,7 +8762,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8770,61 +8773,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="138" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="138"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="141" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="143"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -8834,90 +8837,90 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="229">
+      <c r="B4" s="231">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233">
+      <c r="F4" s="234"/>
+      <c r="G4" s="235">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="233"/>
+      <c r="H4" s="235"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="233">
+      <c r="J4" s="235">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="237">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="229">
+      <c r="N4" s="231">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="238"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="261">
+      <c r="B5" s="263">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="221" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="261">
+      <c r="F5" s="223"/>
+      <c r="G5" s="263">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="261"/>
+      <c r="H5" s="263"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="261">
+      <c r="J5" s="263">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="261"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="263"/>
+      <c r="L5" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="237">
+      <c r="M5" s="239">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="200">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="262"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="191"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="193"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -8930,38 +8933,38 @@
       <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="303"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="305" t="s">
+      <c r="A7" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="305"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="295"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="282"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
+      <c r="M7" s="295"/>
+      <c r="N7" s="295"/>
+      <c r="O7" s="297"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="310"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="296"/>
+      <c r="K8" s="296"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -8980,16 +8983,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="296">
-        <v>0</v>
-      </c>
-      <c r="E9" s="297"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="D9" s="298">
+        <v>0</v>
+      </c>
+      <c r="E9" s="299"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
+      <c r="H9" s="300"/>
+      <c r="I9" s="300"/>
+      <c r="J9" s="301"/>
+      <c r="K9" s="301"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
@@ -9008,16 +9011,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="309">
-        <v>0</v>
-      </c>
-      <c r="E10" s="310"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
+      <c r="D10" s="311">
+        <v>0</v>
+      </c>
+      <c r="E10" s="312"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="301"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
@@ -9036,16 +9039,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="309">
-        <v>0</v>
-      </c>
-      <c r="E11" s="310"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
+      <c r="D11" s="311">
+        <v>0</v>
+      </c>
+      <c r="E11" s="312"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="301"/>
+      <c r="K11" s="301"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
@@ -9064,16 +9067,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="309">
-        <v>0</v>
-      </c>
-      <c r="E12" s="310"/>
-      <c r="F12" s="298"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
+      <c r="D12" s="311">
+        <v>0</v>
+      </c>
+      <c r="E12" s="312"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="301"/>
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
@@ -9092,16 +9095,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="309">
-        <v>0</v>
-      </c>
-      <c r="E13" s="310"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="298"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
+      <c r="D13" s="311">
+        <v>0</v>
+      </c>
+      <c r="E13" s="312"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -9120,16 +9123,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="309">
-        <v>0</v>
-      </c>
-      <c r="E14" s="310"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="298"/>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
+      <c r="D14" s="311">
+        <v>0</v>
+      </c>
+      <c r="E14" s="312"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="301"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -9148,16 +9151,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="309">
-        <v>0</v>
-      </c>
-      <c r="E15" s="310"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
+      <c r="D15" s="311">
+        <v>0</v>
+      </c>
+      <c r="E15" s="312"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="301"/>
+      <c r="K15" s="301"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -9176,16 +9179,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="309">
-        <v>0</v>
-      </c>
-      <c r="E16" s="310"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="298"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
+      <c r="D16" s="311">
+        <v>0</v>
+      </c>
+      <c r="E16" s="312"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="301"/>
+      <c r="K16" s="301"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
@@ -9204,16 +9207,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="309">
-        <v>0</v>
-      </c>
-      <c r="E17" s="310"/>
-      <c r="F17" s="298"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="298"/>
-      <c r="I17" s="298"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
+      <c r="D17" s="311">
+        <v>0</v>
+      </c>
+      <c r="E17" s="312"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="300"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="301"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9232,16 +9235,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="309">
-        <v>0</v>
-      </c>
-      <c r="E18" s="310"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="298"/>
-      <c r="I18" s="298"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
+      <c r="D18" s="311">
+        <v>0</v>
+      </c>
+      <c r="E18" s="312"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="300"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="301"/>
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -9260,16 +9263,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="309">
-        <v>0</v>
-      </c>
-      <c r="E19" s="310"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="298"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
+      <c r="D19" s="311">
+        <v>0</v>
+      </c>
+      <c r="E19" s="312"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
@@ -9288,16 +9291,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="309">
-        <v>0</v>
-      </c>
-      <c r="E20" s="310"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="298"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
+      <c r="D20" s="311">
+        <v>0</v>
+      </c>
+      <c r="E20" s="312"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="300"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="300"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -9316,16 +9319,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="309">
-        <v>0</v>
-      </c>
-      <c r="E21" s="310"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="298"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
+      <c r="D21" s="311">
+        <v>0</v>
+      </c>
+      <c r="E21" s="312"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="300"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="301"/>
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
       <c r="N21" s="62"/>
@@ -9344,16 +9347,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="309">
-        <v>0</v>
-      </c>
-      <c r="E22" s="310"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="298"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
+      <c r="D22" s="311">
+        <v>0</v>
+      </c>
+      <c r="E22" s="312"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="300"/>
+      <c r="H22" s="300"/>
+      <c r="I22" s="300"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
@@ -9372,16 +9375,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="309">
-        <v>0</v>
-      </c>
-      <c r="E23" s="310"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="298"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="299"/>
+      <c r="D23" s="311">
+        <v>0</v>
+      </c>
+      <c r="E23" s="312"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="300"/>
+      <c r="H23" s="300"/>
+      <c r="I23" s="300"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -9400,16 +9403,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="309">
-        <v>0</v>
-      </c>
-      <c r="E24" s="310"/>
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="298"/>
-      <c r="I24" s="298"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
+      <c r="D24" s="311">
+        <v>0</v>
+      </c>
+      <c r="E24" s="312"/>
+      <c r="F24" s="300"/>
+      <c r="G24" s="300"/>
+      <c r="H24" s="300"/>
+      <c r="I24" s="300"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
@@ -9428,16 +9431,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="309">
-        <v>0</v>
-      </c>
-      <c r="E25" s="310"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="298"/>
-      <c r="I25" s="298"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="299"/>
+      <c r="D25" s="311">
+        <v>0</v>
+      </c>
+      <c r="E25" s="312"/>
+      <c r="F25" s="300"/>
+      <c r="G25" s="300"/>
+      <c r="H25" s="300"/>
+      <c r="I25" s="300"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
@@ -9456,16 +9459,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="309">
-        <v>0</v>
-      </c>
-      <c r="E26" s="310"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="298"/>
-      <c r="I26" s="298"/>
-      <c r="J26" s="299"/>
-      <c r="K26" s="299"/>
+      <c r="D26" s="311">
+        <v>0</v>
+      </c>
+      <c r="E26" s="312"/>
+      <c r="F26" s="300"/>
+      <c r="G26" s="300"/>
+      <c r="H26" s="300"/>
+      <c r="I26" s="300"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
@@ -9484,16 +9487,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="309">
-        <v>0</v>
-      </c>
-      <c r="E27" s="310"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="298"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
+      <c r="D27" s="311">
+        <v>0</v>
+      </c>
+      <c r="E27" s="312"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="301"/>
+      <c r="K27" s="301"/>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
@@ -9512,16 +9515,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="309">
-        <v>0</v>
-      </c>
-      <c r="E28" s="310"/>
-      <c r="F28" s="298"/>
-      <c r="G28" s="298"/>
-      <c r="H28" s="298"/>
-      <c r="I28" s="298"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
+      <c r="D28" s="311">
+        <v>0</v>
+      </c>
+      <c r="E28" s="312"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="300"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="300"/>
+      <c r="J28" s="301"/>
+      <c r="K28" s="301"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
       <c r="N28" s="62"/>
@@ -9540,16 +9543,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="309">
-        <v>0</v>
-      </c>
-      <c r="E29" s="310"/>
-      <c r="F29" s="298"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="298"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="299"/>
+      <c r="D29" s="311">
+        <v>0</v>
+      </c>
+      <c r="E29" s="312"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="300"/>
+      <c r="J29" s="301"/>
+      <c r="K29" s="301"/>
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9568,16 +9571,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="309">
-        <v>0</v>
-      </c>
-      <c r="E30" s="310"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="298"/>
-      <c r="J30" s="299"/>
-      <c r="K30" s="299"/>
+      <c r="D30" s="311">
+        <v>0</v>
+      </c>
+      <c r="E30" s="312"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="300"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="300"/>
+      <c r="J30" s="301"/>
+      <c r="K30" s="301"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
@@ -9596,16 +9599,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="309">
-        <v>0</v>
-      </c>
-      <c r="E31" s="310"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="298"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="299"/>
+      <c r="D31" s="311">
+        <v>0</v>
+      </c>
+      <c r="E31" s="312"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="300"/>
+      <c r="J31" s="301"/>
+      <c r="K31" s="301"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
@@ -9624,16 +9627,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="309">
-        <v>0</v>
-      </c>
-      <c r="E32" s="310"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
-      <c r="J32" s="299"/>
-      <c r="K32" s="299"/>
+      <c r="D32" s="311">
+        <v>0</v>
+      </c>
+      <c r="E32" s="312"/>
+      <c r="F32" s="300"/>
+      <c r="G32" s="300"/>
+      <c r="H32" s="300"/>
+      <c r="I32" s="300"/>
+      <c r="J32" s="301"/>
+      <c r="K32" s="301"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -9652,16 +9655,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="309">
-        <v>0</v>
-      </c>
-      <c r="E33" s="310"/>
-      <c r="F33" s="298"/>
-      <c r="G33" s="298"/>
-      <c r="H33" s="298"/>
-      <c r="I33" s="298"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="299"/>
+      <c r="D33" s="311">
+        <v>0</v>
+      </c>
+      <c r="E33" s="312"/>
+      <c r="F33" s="300"/>
+      <c r="G33" s="300"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="301"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -9680,16 +9683,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="309">
-        <v>0</v>
-      </c>
-      <c r="E34" s="310"/>
-      <c r="F34" s="298"/>
-      <c r="G34" s="298"/>
-      <c r="H34" s="298"/>
-      <c r="I34" s="298"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
+      <c r="D34" s="311">
+        <v>0</v>
+      </c>
+      <c r="E34" s="312"/>
+      <c r="F34" s="300"/>
+      <c r="G34" s="300"/>
+      <c r="H34" s="300"/>
+      <c r="I34" s="300"/>
+      <c r="J34" s="301"/>
+      <c r="K34" s="301"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -9708,16 +9711,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="309">
-        <v>0</v>
-      </c>
-      <c r="E35" s="310"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="298"/>
-      <c r="H35" s="298"/>
-      <c r="I35" s="298"/>
-      <c r="J35" s="299"/>
-      <c r="K35" s="299"/>
+      <c r="D35" s="311">
+        <v>0</v>
+      </c>
+      <c r="E35" s="312"/>
+      <c r="F35" s="300"/>
+      <c r="G35" s="300"/>
+      <c r="H35" s="300"/>
+      <c r="I35" s="300"/>
+      <c r="J35" s="301"/>
+      <c r="K35" s="301"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -9736,16 +9739,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="309">
-        <v>0</v>
-      </c>
-      <c r="E36" s="310"/>
-      <c r="F36" s="298"/>
-      <c r="G36" s="298"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="298"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
+      <c r="D36" s="311">
+        <v>0</v>
+      </c>
+      <c r="E36" s="312"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+      <c r="H36" s="300"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="301"/>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
       <c r="N36" s="62"/>
@@ -9764,16 +9767,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="309">
-        <v>0</v>
-      </c>
-      <c r="E37" s="310"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="298"/>
-      <c r="H37" s="298"/>
-      <c r="I37" s="298"/>
-      <c r="J37" s="299"/>
-      <c r="K37" s="299"/>
+      <c r="D37" s="311">
+        <v>0</v>
+      </c>
+      <c r="E37" s="312"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="300"/>
+      <c r="H37" s="300"/>
+      <c r="I37" s="300"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="301"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
@@ -9792,16 +9795,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="319">
-        <v>0</v>
-      </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="298"/>
-      <c r="G38" s="298"/>
-      <c r="H38" s="298"/>
-      <c r="I38" s="298"/>
-      <c r="J38" s="299"/>
-      <c r="K38" s="299"/>
+      <c r="D38" s="321">
+        <v>0</v>
+      </c>
+      <c r="E38" s="322"/>
+      <c r="F38" s="300"/>
+      <c r="G38" s="300"/>
+      <c r="H38" s="300"/>
+      <c r="I38" s="300"/>
+      <c r="J38" s="301"/>
+      <c r="K38" s="301"/>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -9813,17 +9816,17 @@
       <c r="C39" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="321">
+      <c r="D39" s="323">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="322"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="318"/>
+      <c r="E39" s="324"/>
+      <c r="F39" s="319"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="320"/>
+      <c r="K39" s="320"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
       <c r="N39" s="69"/>
@@ -9835,17 +9838,17 @@
       <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="315">
+      <c r="D40" s="317">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="316"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
+      <c r="E40" s="318"/>
+      <c r="F40" s="319"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="319"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="320"/>
+      <c r="K40" s="320"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
       <c r="N40" s="69"/>
@@ -9857,17 +9860,17 @@
       <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="311">
+      <c r="D41" s="313">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="313"/>
-      <c r="I41" s="313"/>
-      <c r="J41" s="314"/>
-      <c r="K41" s="314"/>
+      <c r="E41" s="314"/>
+      <c r="F41" s="315"/>
+      <c r="G41" s="315"/>
+      <c r="H41" s="315"/>
+      <c r="I41" s="315"/>
+      <c r="J41" s="316"/>
+      <c r="K41" s="316"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -9877,31 +9880,31 @@
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="214" t="s">
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="214"/>
+      <c r="E42" s="216"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="215"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
-      <c r="N42" s="216"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -9910,39 +9913,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
+      <c r="L43" s="220"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="219" t="s">
+      <c r="A44" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="219" t="str">
+      <c r="G44" s="221" t="str">
         <f>Page1!G43</f>
-        <v>MRMP : 00003055.002  GCAS:91899840.002</v>
-      </c>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
+        <v>MRMP : 00003055.002  GCAS:91899840.004</v>
+      </c>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -9953,10 +9956,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="220" t="s">
-        <v>46</v>
-      </c>
-      <c r="N45" s="220"/>
+      <c r="M45" s="222" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" s="222"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
@@ -10183,94 +10186,94 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="I2" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="J2" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="K2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="L2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="M2" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="N2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="103" t="s">
+      <c r="O2" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="103" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3" spans="1:15" s="75" customFormat="1">
-      <c r="A3" s="323"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="104">
         <f>Page1!C8</f>
         <v>0</v>
@@ -10324,7 +10327,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="75" customFormat="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="104">
         <f>Page1!C9</f>
         <v>0</v>
@@ -10378,7 +10381,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="75" customFormat="1">
-      <c r="A5" s="323"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="104">
         <f>Page1!C10</f>
         <v>0</v>
@@ -10432,7 +10435,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="75" customFormat="1">
-      <c r="A6" s="323"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="104">
         <f>Page1!C11</f>
         <v>0</v>
@@ -10486,7 +10489,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="75" customFormat="1">
-      <c r="A7" s="323"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="104">
         <f>Page1!C12</f>
         <v>0</v>
@@ -10540,7 +10543,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="75" customFormat="1">
-      <c r="A8" s="323"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="104">
         <f>Page1!C13</f>
         <v>0</v>
@@ -10594,7 +10597,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="75" customFormat="1">
-      <c r="A9" s="323"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="104">
         <f>Page1!C14</f>
         <v>0</v>
@@ -10648,7 +10651,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="75" customFormat="1">
-      <c r="A10" s="323"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="104">
         <f>Page1!C15</f>
         <v>0</v>
@@ -10702,7 +10705,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="75" customFormat="1">
-      <c r="A11" s="323"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="104">
         <f>Page1!C16</f>
         <v>0</v>
@@ -10756,7 +10759,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="75" customFormat="1">
-      <c r="A12" s="323"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="104">
         <f>Page1!C17</f>
         <v>0</v>
@@ -10810,7 +10813,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="75" customFormat="1">
-      <c r="A13" s="323"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="104">
         <f>Page1!C18</f>
         <v>0</v>
@@ -10864,7 +10867,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="75" customFormat="1">
-      <c r="A14" s="323"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="104">
         <f>Page1!C19</f>
         <v>0</v>
@@ -10918,7 +10921,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="75" customFormat="1">
-      <c r="A15" s="323"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="104">
         <f>Page1!C20</f>
         <v>0</v>
@@ -10972,7 +10975,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="75" customFormat="1">
-      <c r="A16" s="323"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="104">
         <f>Page1!C21</f>
         <v>0</v>
@@ -11026,7 +11029,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="75" customFormat="1">
-      <c r="A17" s="323"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="104">
         <f>Page1!C22</f>
         <v>0</v>
@@ -11080,7 +11083,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="75" customFormat="1">
-      <c r="A18" s="323"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="104">
         <f>Page1!C23</f>
         <v>0</v>
@@ -11134,7 +11137,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="75" customFormat="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="104">
         <f>Page1!C24</f>
         <v>0</v>
@@ -11188,7 +11191,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="75" customFormat="1">
-      <c r="A20" s="323"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="104">
         <f>Page1!C25</f>
         <v>0</v>
@@ -11242,7 +11245,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="75" customFormat="1">
-      <c r="A21" s="323"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="104">
         <f>Page1!C26</f>
         <v>0</v>
@@ -11296,7 +11299,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="75" customFormat="1">
-      <c r="A22" s="323"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="104">
         <f>Page1!C27</f>
         <v>0</v>
@@ -11350,7 +11353,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="75" customFormat="1">
-      <c r="A23" s="323"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="104">
         <f>Page1!C28</f>
         <v>0</v>
@@ -11404,7 +11407,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="75" customFormat="1">
-      <c r="A24" s="323"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="104">
         <f>Page1!C29</f>
         <v>0</v>
@@ -11458,7 +11461,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="75" customFormat="1">
-      <c r="A25" s="323"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="104">
         <f>Page1!C30</f>
         <v>0</v>
@@ -11512,7 +11515,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="75" customFormat="1">
-      <c r="A26" s="323"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="104">
         <f>Page1!C31</f>
         <v>0</v>
@@ -11566,7 +11569,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="75" customFormat="1">
-      <c r="A27" s="323"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="104">
         <f>Page1!C32</f>
         <v>0</v>
@@ -11620,7 +11623,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="75" customFormat="1">
-      <c r="A28" s="323"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="104">
         <f>Page1!C33</f>
         <v>0</v>
@@ -11674,7 +11677,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="75" customFormat="1">
-      <c r="A29" s="323"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="104">
         <f>Page1!C34</f>
         <v>0</v>
@@ -11728,7 +11731,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="75" customFormat="1">
-      <c r="A30" s="323"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="104">
         <f>Page1!C35</f>
         <v>0</v>
@@ -11782,7 +11785,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="75" customFormat="1">
-      <c r="A31" s="323"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="104">
         <f>Page1!C36</f>
         <v>0</v>
@@ -11836,7 +11839,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="75" customFormat="1">
-      <c r="A32" s="323"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="104">
         <f>Page1!C37</f>
         <v>0</v>
@@ -11953,7 +11956,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12007,34 +12010,34 @@
     </row>
     <row r="2" spans="1:46" s="88" customFormat="1" ht="24">
       <c r="A2" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="G2" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="H2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="I2" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="J2" s="85" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>84</v>
       </c>
       <c r="K2" s="85">
         <v>1</v>
@@ -12130,19 +12133,19 @@
         <v>24</v>
       </c>
       <c r="AP2" s="86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ2" s="85" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AR2" s="86" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AT2" s="87" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="96" customFormat="1" ht="15" customHeight="1">
@@ -12150,31 +12153,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="H3" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="I3" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="J3" s="93" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>98</v>
       </c>
       <c r="K3" s="106" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$D$8:$D$37, COLUMN(K4)-10)</f>
@@ -12326,31 +12329,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="93" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>104</v>
       </c>
       <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K4" s="107" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page2!$K$9:$K$38, COLUMN(K5)-10)</f>
@@ -12502,31 +12505,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="93" t="s">
         <v>101</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>106</v>
       </c>
       <c r="I5" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K5" s="107" t="e" cm="1">
         <f t="array" ref="K5">INDEX(Page3!$K$9:$K$38, COLUMN(K6)-10)</f>
@@ -12678,31 +12681,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K6" s="107" t="e" cm="1">
         <f t="array" ref="K6">INDEX(Page2!$O$9:$O$38, COLUMN(K7)-10)</f>
@@ -12854,31 +12857,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H7" s="93" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I7" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K7" s="108" t="e" cm="1">
         <f t="array" ref="K7">INDEX(Page2!$G$9:$G$38, COLUMN(K8)-10)</f>
@@ -13030,31 +13033,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D8" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="93" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>117</v>
       </c>
       <c r="I8" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K8" s="108" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K9)-10)</f>
@@ -13206,31 +13209,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="92" t="s">
+      <c r="J9" s="98" t="s">
         <v>119</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>124</v>
       </c>
       <c r="K9" s="109" cm="1">
         <f t="array" ref="K9">INDEX(Page1!$G$8:$G$37, COLUMN(K10)-10)</f>
@@ -13352,7 +13355,7 @@
         <f t="array" ref="AN9">INDEX(Page1!$G$8:$G$37, COLUMN(AN10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="94">
+      <c r="AO9" s="118">
         <f>AVERAGE(K9:AN9)</f>
         <v>0</v>
       </c>
@@ -13382,19 +13385,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G10" s="99">
         <v>30</v>
@@ -13406,7 +13409,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K10" s="107" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page3!$O$9:$O$38, COLUMN(K11)-10)</f>
@@ -13558,29 +13561,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11" s="100" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="93" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K11" s="106" cm="1">
         <f t="array" ref="K11">INDEX(Page4!$J$9:$J$38, COLUMN(K12)-10)</f>
@@ -13732,31 +13735,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="93" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" s="93" t="s">
-        <v>98</v>
       </c>
       <c r="K12" s="106" cm="1">
         <f t="array" ref="K12">INDEX(Page1!$M$8:$M$37, COLUMN(K13)-10)</f>
@@ -13908,31 +13911,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J13" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K13" s="107" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$J$8:$J$37, COLUMN(K14)-10)</f>
@@ -14084,31 +14087,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K14" s="107" cm="1">
         <f t="array" ref="K14">INDEX(Page4!$D$9:$D$38, COLUMN(K15)-10)</f>
@@ -14260,31 +14263,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>145</v>
-      </c>
       <c r="H15" s="93" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K15" s="107" cm="1">
         <f t="array" ref="K15">INDEX(Page4!$F$9:$F$38, COLUMN(K16)-10)</f>
@@ -14436,31 +14439,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G16" s="93" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J16" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K16" s="107" cm="1">
         <f t="array" ref="K16">INDEX(Page4!$H$9:$H$387, COLUMN(K17)-10)</f>
@@ -14612,29 +14615,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="93" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K17" s="107" t="e" cm="1">
         <f t="array" ref="K17">INDEX(Page4!$O$9:$O$38, COLUMN(K18)-10)</f>
